--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="Q41" t="n">
         <v>50</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M42" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>450</v>
+        <v>93</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K43" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L43" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M43" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3528,17 +3528,17 @@
         <v>800</v>
       </c>
       <c r="K44" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L44" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M44" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="Q44" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K45" t="n">
         <v>9000</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K46" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="Q46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44336</v>
+        <v>44377</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L49" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M49" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K50" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L50" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="Q50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K51" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M51" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K52" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L52" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M52" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="Q52" t="n">
         <v>50</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K53" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L53" t="n">
         <v>14000</v>
       </c>
-      <c r="L53" t="n">
-        <v>15000</v>
-      </c>
       <c r="M53" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L54" t="n">
         <v>12000</v>
       </c>
-      <c r="L54" t="n">
-        <v>13000</v>
-      </c>
       <c r="M54" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q54" t="n">
         <v>40</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L56" t="n">
         <v>12000</v>
       </c>
-      <c r="L56" t="n">
-        <v>13000</v>
-      </c>
       <c r="M56" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q56" t="n">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,29 +4452,29 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K57" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L57" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M57" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="Q57" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K58" t="n">
         <v>14000</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,24 +4601,24 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K59" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M59" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,29 +4668,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L60" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M60" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="Q60" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K61" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M61" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>210</v>
+        <v>417</v>
       </c>
       <c r="Q61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M62" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="Q62" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K63" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L63" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K64" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L64" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M64" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K65" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L65" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M65" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5112,17 +5112,17 @@
         <v>1000</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L66" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M66" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="Q66" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L67" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M67" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="Q67" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5256,17 +5256,17 @@
         <v>700</v>
       </c>
       <c r="K68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L68" t="n">
         <v>12000</v>
       </c>
       <c r="M68" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="Q68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L69" t="n">
         <v>12000</v>
       </c>
-      <c r="L69" t="n">
-        <v>13000</v>
-      </c>
       <c r="M69" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L70" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M70" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,24 +5465,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K71" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L71" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M71" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,16 +5532,16 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K72" t="n">
         <v>11000</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M73" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K74" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L74" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q74" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L75" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M75" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5832,13 +5832,13 @@
         <v>700</v>
       </c>
       <c r="K76" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L76" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M76" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q76" t="n">
         <v>40</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K77" t="n">
         <v>11000</v>
       </c>
       <c r="L77" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M77" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q77" t="n">
         <v>40</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
         <v>600</v>
       </c>
       <c r="K78" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M78" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q79" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44307</v>
+        <v>44399</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L80" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M80" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>238</v>
+        <v>367</v>
       </c>
       <c r="Q80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44301</v>
+        <v>44399</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,24 +6185,24 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L81" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M81" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="Q81" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44370</v>
+        <v>44399</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6264,17 +6264,17 @@
         <v>1000</v>
       </c>
       <c r="K82" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L82" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M82" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q82" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44370</v>
+        <v>44399</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L83" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M83" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44370</v>
+        <v>44307</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6401,24 +6401,24 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K84" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L84" t="n">
         <v>12000</v>
       </c>
-      <c r="L84" t="n">
-        <v>13000</v>
-      </c>
       <c r="M84" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q84" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44398</v>
+        <v>44307</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,24 +6473,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K85" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L85" t="n">
         <v>10000</v>
       </c>
-      <c r="L85" t="n">
-        <v>12000</v>
-      </c>
       <c r="M85" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="Q85" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44398</v>
+        <v>44301</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6545,24 +6545,24 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K86" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L86" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M86" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="Q86" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L87" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M87" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K88" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L88" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>180</v>
+        <v>483</v>
       </c>
       <c r="Q88" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44343</v>
+        <v>44370</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L89" t="n">
         <v>13000</v>
       </c>
-      <c r="L89" t="n">
-        <v>14000</v>
-      </c>
       <c r="M89" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K90" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M90" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>483</v>
+        <v>367</v>
       </c>
       <c r="Q90" t="n">
         <v>30</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K91" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L91" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M91" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q91" t="n">
         <v>40</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K92" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L92" t="n">
         <v>13000</v>
       </c>
-      <c r="L92" t="n">
-        <v>14000</v>
-      </c>
       <c r="M92" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,12 +7003,372 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="Q92" t="n">
         <v>40</v>
       </c>
       <c r="R92" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>700</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L93" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M93" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>50</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>800</v>
+      </c>
+      <c r="K94" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>50</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>600</v>
+      </c>
+      <c r="K95" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L95" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M95" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>30</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>700</v>
+      </c>
+      <c r="K96" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L96" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M96" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>40</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>700</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L97" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M97" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>40</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K41" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L41" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q41" t="n">
         <v>50</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q42" t="n">
         <v>70</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K43" t="n">
         <v>10000</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3528,13 +3528,13 @@
         <v>800</v>
       </c>
       <c r="K44" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Q44" t="n">
         <v>40</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K45" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M45" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q45" t="n">
         <v>40</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="Q46" t="n">
         <v>50</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K47" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M47" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>450</v>
+        <v>93</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K48" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L48" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M48" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L49" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M49" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="Q49" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K50" t="n">
         <v>9000</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K51" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="Q51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44336</v>
+        <v>44377</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K53" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4241,24 +4241,24 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L54" t="n">
         <v>11000</v>
       </c>
-      <c r="L54" t="n">
-        <v>12000</v>
-      </c>
       <c r="M54" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,25 +4308,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="Q55" t="n">
         <v>40</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44300</v>
+        <v>44426</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K56" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L56" t="n">
         <v>11000</v>
       </c>
-      <c r="L56" t="n">
-        <v>12000</v>
-      </c>
       <c r="M56" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K57" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L57" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M57" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="Q57" t="n">
         <v>50</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,29 +4524,29 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K58" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L58" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M58" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,24 +4601,24 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L59" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M59" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K60" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L60" t="n">
         <v>10000</v>
       </c>
       <c r="M60" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K61" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L61" t="n">
         <v>12000</v>
       </c>
-      <c r="L61" t="n">
-        <v>13000</v>
-      </c>
       <c r="M61" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,24 +4817,24 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K62" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="Q62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44364</v>
+        <v>44336</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L63" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M63" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q63" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44364</v>
+        <v>44336</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4968,17 +4968,17 @@
         <v>800</v>
       </c>
       <c r="K64" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L64" t="n">
         <v>14000</v>
       </c>
-      <c r="L64" t="n">
-        <v>15000</v>
-      </c>
       <c r="M64" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44364</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,24 +5033,24 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L65" t="n">
         <v>12000</v>
       </c>
-      <c r="L65" t="n">
-        <v>13000</v>
-      </c>
       <c r="M65" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K66" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L66" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M66" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,29 +5172,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K67" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="Q67" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,24 +5249,24 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K68" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L68" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="Q68" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K69" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L69" t="n">
         <v>10000</v>
       </c>
-      <c r="L69" t="n">
-        <v>12000</v>
-      </c>
       <c r="M69" t="n">
-        <v>11000</v>
+        <v>9750</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="Q69" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44391</v>
+        <v>44314</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L70" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M70" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44391</v>
+        <v>44314</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,24 +5465,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L71" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M71" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,29 +5532,29 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K72" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L72" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q72" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K73" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,16 +5676,16 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K74" t="n">
         <v>12000</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M75" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5832,17 +5832,17 @@
         <v>700</v>
       </c>
       <c r="K76" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L76" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M76" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="Q76" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5904,17 +5904,17 @@
         <v>700</v>
       </c>
       <c r="K77" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L77" t="n">
         <v>12000</v>
       </c>
       <c r="M77" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="Q77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K78" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L78" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M78" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44315</v>
+        <v>44391</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,29 +6036,29 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K79" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L79" t="n">
         <v>12000</v>
       </c>
       <c r="M79" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K80" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L80" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M80" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="Q80" t="n">
         <v>30</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K81" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L81" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M81" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q81" t="n">
         <v>40</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
         <v>11000</v>
       </c>
       <c r="L82" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M82" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q82" t="n">
         <v>40</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K83" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L83" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M83" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="Q83" t="n">
         <v>50</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44307</v>
+        <v>44350</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K84" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L84" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M84" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="Q84" t="n">
         <v>30</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44307</v>
+        <v>44350</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K85" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L85" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="Q85" t="n">
         <v>40</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44301</v>
+        <v>44350</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K86" t="n">
         <v>11000</v>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q86" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44370</v>
+        <v>44315</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K87" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L87" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M87" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="Q87" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44370</v>
+        <v>44315</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6689,24 +6689,24 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K88" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M88" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q88" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44370</v>
+        <v>44399</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L89" t="n">
         <v>12000</v>
       </c>
-      <c r="L89" t="n">
-        <v>13000</v>
-      </c>
       <c r="M89" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="Q89" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,24 +6833,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K90" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L90" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M90" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="Q90" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L91" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M91" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q91" t="n">
         <v>40</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,24 +6977,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L92" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M92" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="Q92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44398</v>
+        <v>44419</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K93" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L93" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M93" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="Q93" t="n">
         <v>50</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44343</v>
+        <v>44419</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7121,24 +7121,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>800</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L94" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M94" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="Q94" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44343</v>
+        <v>44419</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K95" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L95" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M95" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q95" t="n">
         <v>30</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44343</v>
+        <v>44419</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L96" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M96" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q96" t="n">
         <v>40</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44343</v>
+        <v>44419</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K97" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L97" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M97" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,12 +7363,1452 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="Q97" t="n">
         <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K98" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L98" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M98" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>230</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>50</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>$/caja 70 unidades</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>70</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M100" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>30</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M101" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>40</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K102" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L102" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M102" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>40</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>900</v>
+      </c>
+      <c r="K103" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L103" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M103" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>170</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>50</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>500</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L104" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M104" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>383</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>30</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>400</v>
+      </c>
+      <c r="K105" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M105" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>238</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>40</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>500</v>
+      </c>
+      <c r="K106" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L106" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M106" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>383</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>30</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K107" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M107" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>50</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>800</v>
+      </c>
+      <c r="K108" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L108" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M108" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>30</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>600</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L109" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M109" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>40</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L110" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M110" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>30</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>800</v>
+      </c>
+      <c r="K111" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M111" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>40</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K112" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L112" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M112" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>40</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>700</v>
+      </c>
+      <c r="K113" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L113" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M113" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>50</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>800</v>
+      </c>
+      <c r="K114" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L114" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M114" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>50</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>600</v>
+      </c>
+      <c r="K115" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L115" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M115" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>30</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>700</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L116" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M116" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>40</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>700</v>
+      </c>
+      <c r="K117" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L117" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>40</v>
+      </c>
+      <c r="R117" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44384</v>
+        <v>44434</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44363</v>
+        <v>44434</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,24 +2585,24 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L31" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M31" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44363</v>
+        <v>44434</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44363</v>
+        <v>44434</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q33" t="n">
         <v>40</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44363</v>
+        <v>44434</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="Q34" t="n">
         <v>40</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3017,24 +3017,24 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>800</v>
       </c>
       <c r="K37" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="n">
         <v>40</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K39" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K40" t="n">
         <v>12000</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>433</v>
+        <v>250</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K41" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3384,17 +3384,17 @@
         <v>800</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="Q42" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K43" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L43" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M43" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="Q44" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="Q45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q46" t="n">
         <v>50</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K47" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L47" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M47" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q47" t="n">
         <v>70</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K48" t="n">
         <v>10000</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3888,13 +3888,13 @@
         <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L49" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Q49" t="n">
         <v>40</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K50" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M50" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q50" t="n">
         <v>40</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M51" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,29 +4092,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>450</v>
+        <v>93</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K53" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4241,24 +4241,24 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K54" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L54" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M54" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,25 +4308,25 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L55" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q55" t="n">
         <v>40</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K56" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L56" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Q56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44412</v>
+        <v>44377</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K57" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,24 +4529,24 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K58" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L58" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M58" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="Q58" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4608,13 +4608,13 @@
         <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L59" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M59" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,25 +4668,25 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L60" t="n">
         <v>9000</v>
       </c>
-      <c r="L60" t="n">
-        <v>10000</v>
-      </c>
       <c r="M60" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="Q60" t="n">
         <v>40</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K61" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L61" t="n">
         <v>11000</v>
       </c>
-      <c r="L61" t="n">
-        <v>12000</v>
-      </c>
       <c r="M61" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="Q61" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L62" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M62" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K63" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L63" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M63" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="Q63" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M64" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K65" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L65" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M65" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K66" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L66" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M66" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K67" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L67" t="n">
         <v>14000</v>
       </c>
-      <c r="L67" t="n">
-        <v>15000</v>
-      </c>
       <c r="M67" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L68" t="n">
         <v>12000</v>
       </c>
-      <c r="L68" t="n">
-        <v>13000</v>
-      </c>
       <c r="M68" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q68" t="n">
         <v>40</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,20 +5325,20 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K69" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L69" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M69" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K70" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L70" t="n">
         <v>12000</v>
       </c>
-      <c r="L70" t="n">
-        <v>13000</v>
-      </c>
       <c r="M70" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q70" t="n">
         <v>30</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K71" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L71" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M71" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K72" t="n">
         <v>14000</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q72" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,24 +5609,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M73" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L74" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M74" t="n">
-        <v>12500</v>
+        <v>9750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="Q74" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L75" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M75" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>210</v>
+        <v>417</v>
       </c>
       <c r="Q75" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L76" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M76" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="Q76" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K77" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L77" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M77" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="Q77" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K78" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L78" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M78" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44391</v>
+        <v>44364</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,29 +6036,29 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K79" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L79" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M79" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="Q79" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K80" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L80" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M80" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q80" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K81" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L81" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M81" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="Q81" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="K82" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L82" t="n">
         <v>11000</v>
       </c>
-      <c r="L82" t="n">
-        <v>12000</v>
-      </c>
       <c r="M82" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q82" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K83" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L83" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M83" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="Q83" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44350</v>
+        <v>44435</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K84" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L84" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M84" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q84" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,29 +6468,29 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K85" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L85" t="n">
         <v>11000</v>
       </c>
-      <c r="L85" t="n">
-        <v>12000</v>
-      </c>
       <c r="M85" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="Q85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>700</v>
       </c>
       <c r="K86" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L86" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M86" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="Q86" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M87" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44315</v>
+        <v>44405</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K88" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
         <v>12000</v>
       </c>
       <c r="M88" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="Q88" t="n">
         <v>40</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K89" t="n">
         <v>10000</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="Q89" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6833,24 +6833,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L90" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M90" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="Q90" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,25 +6900,25 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K91" t="n">
         <v>11000</v>
       </c>
       <c r="L91" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M91" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q91" t="n">
         <v>40</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,24 +6977,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L92" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M92" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="Q92" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44419</v>
+        <v>44350</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K93" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L93" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M93" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q93" t="n">
         <v>50</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44419</v>
+        <v>44350</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K94" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M94" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="Q94" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44419</v>
+        <v>44350</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,24 +7193,24 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K95" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L95" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M95" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44419</v>
+        <v>44350</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,25 +7260,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K96" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L96" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M96" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q96" t="n">
         <v>40</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44419</v>
+        <v>44315</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K97" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L97" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M97" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="Q97" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44420</v>
+        <v>44315</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,16 +7404,16 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K98" t="n">
         <v>11000</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K99" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M99" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="Q99" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,24 +7553,24 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K100" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L100" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M100" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q100" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K101" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L101" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M101" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q101" t="n">
         <v>40</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,24 +7697,24 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K102" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L102" t="n">
         <v>10000</v>
       </c>
-      <c r="L102" t="n">
-        <v>11000</v>
-      </c>
       <c r="M102" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="Q102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L103" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44307</v>
+        <v>44419</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K104" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L104" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M104" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>383</v>
+        <v>121</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44307</v>
+        <v>44419</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7913,24 +7913,24 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L105" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M105" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="Q105" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44301</v>
+        <v>44419</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K106" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L106" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M106" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L107" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M107" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="Q107" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K108" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>483</v>
+        <v>230</v>
       </c>
       <c r="Q108" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K109" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L109" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M109" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>312</v>
+        <v>136</v>
       </c>
       <c r="Q109" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K110" t="n">
         <v>10000</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M110" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="Q110" t="n">
         <v>30</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K111" t="n">
         <v>8000</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K112" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L112" t="n">
         <v>11000</v>
       </c>
-      <c r="L112" t="n">
-        <v>13000</v>
-      </c>
       <c r="M112" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q112" t="n">
         <v>40</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K113" t="n">
         <v>8000</v>
       </c>
       <c r="L113" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M113" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q113" t="n">
         <v>50</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44343</v>
+        <v>44307</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M114" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="Q114" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44343</v>
+        <v>44307</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,24 +8633,24 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L115" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M115" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>483</v>
+        <v>238</v>
       </c>
       <c r="Q115" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44343</v>
+        <v>44433</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,29 +8700,29 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M116" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,58 +8757,1138 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>900</v>
+      </c>
+      <c r="K117" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L117" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M117" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>$/caja 70 unidades</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>70</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K118" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L118" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M118" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>30</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K119" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M119" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>40</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>500</v>
+      </c>
+      <c r="K120" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L120" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M120" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>40</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>500</v>
+      </c>
+      <c r="K121" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L121" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M121" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>383</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>30</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M122" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>50</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>800</v>
+      </c>
+      <c r="K123" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L123" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M123" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>30</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>600</v>
+      </c>
+      <c r="K124" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M124" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>40</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L125" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M125" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>30</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>800</v>
+      </c>
+      <c r="K126" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L126" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M126" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>40</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K127" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L127" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M127" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>40</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>700</v>
+      </c>
+      <c r="K128" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M128" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>50</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
         <v>44343</v>
       </c>
-      <c r="E117" t="n">
-        <v>4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>800</v>
+      </c>
+      <c r="K129" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L129" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M129" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>50</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>600</v>
+      </c>
+      <c r="K130" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L130" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M130" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>30</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>700</v>
+      </c>
+      <c r="K131" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L131" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M131" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>40</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J117" t="n">
+      <c r="J132" t="n">
         <v>700</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K132" t="n">
         <v>13000</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L132" t="n">
         <v>14000</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M132" t="n">
         <v>13500</v>
       </c>
-      <c r="N117" t="inlineStr">
+      <c r="N132" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
         <v>338</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="Q132" t="n">
         <v>40</v>
       </c>
-      <c r="R117" t="inlineStr">
+      <c r="R132" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L6" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="Q7" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>238</v>
+        <v>450</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44328</v>
+        <v>44350</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K10" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44328</v>
+        <v>44350</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44392</v>
+        <v>44350</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K12" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
         <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44392</v>
+        <v>44350</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44392</v>
+        <v>44356</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44392</v>
+        <v>44356</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L15" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L16" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44329</v>
+        <v>44356</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K17" t="n">
         <v>13000</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44322</v>
+        <v>44349</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K18" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M18" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44322</v>
+        <v>44349</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K19" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M19" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44322</v>
+        <v>44349</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L20" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M20" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q20" t="n">
         <v>40</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K21" t="n">
         <v>11000</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44335</v>
+        <v>44364</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44335</v>
+        <v>44364</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K23" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L23" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M23" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44308</v>
+        <v>44364</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,24 +2081,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,29 +2148,29 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K25" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L25" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M25" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44356</v>
+        <v>44336</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K26" t="n">
         <v>13000</v>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44356</v>
+        <v>44336</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2297,24 +2297,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K27" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L27" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M27" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44356</v>
+        <v>44336</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,25 +2364,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M28" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q28" t="n">
         <v>40</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44356</v>
+        <v>44413</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>540</v>
+        <v>1600</v>
       </c>
       <c r="K29" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M29" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="Q29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44434</v>
+        <v>44413</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2513,24 +2513,24 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44434</v>
+        <v>44413</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="Q31" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44434</v>
+        <v>44413</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2657,24 +2657,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K32" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L32" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M32" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44434</v>
+        <v>44413</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q33" t="n">
         <v>40</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44434</v>
+        <v>44405</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
         <v>10000</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44384</v>
+        <v>44405</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
         <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>450</v>
+        <v>121</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44363</v>
+        <v>44405</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44363</v>
+        <v>44405</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44363</v>
+        <v>44308</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3089,24 +3089,24 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>500</v>
       </c>
       <c r="K38" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L38" t="n">
         <v>12000</v>
       </c>
-      <c r="L38" t="n">
-        <v>13000</v>
-      </c>
       <c r="M38" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44363</v>
+        <v>44308</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,25 +3156,25 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>362</v>
+        <v>238</v>
       </c>
       <c r="Q39" t="n">
         <v>40</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="Q40" t="n">
         <v>50</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M41" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K42" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M42" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q42" t="n">
         <v>40</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K43" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="Q43" t="n">
         <v>40</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44385</v>
+        <v>44328</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K44" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L44" t="n">
         <v>12000</v>
       </c>
-      <c r="L44" t="n">
-        <v>14000</v>
-      </c>
       <c r="M44" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="Q44" t="n">
         <v>50</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44385</v>
+        <v>44328</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K45" t="n">
         <v>12000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M45" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="Q45" t="n">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44427</v>
+        <v>44343</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K46" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M46" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="n">
         <v>50</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44427</v>
+        <v>44343</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K47" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>107</v>
+        <v>483</v>
       </c>
       <c r="Q47" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44427</v>
+        <v>44343</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3809,24 +3809,24 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L48" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44427</v>
+        <v>44343</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K49" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L49" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q49" t="n">
         <v>40</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44427</v>
+        <v>44406</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K50" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L50" t="n">
         <v>10000</v>
       </c>
-      <c r="L50" t="n">
-        <v>11000</v>
-      </c>
       <c r="M50" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,24 +4025,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L51" t="n">
         <v>8000</v>
       </c>
-      <c r="L51" t="n">
-        <v>9000</v>
-      </c>
       <c r="M51" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,29 +4092,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>1000</v>
       </c>
       <c r="K52" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L52" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="Q52" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4176,17 +4176,17 @@
         <v>800</v>
       </c>
       <c r="K53" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L53" t="n">
         <v>10000</v>
       </c>
-      <c r="L53" t="n">
-        <v>11000</v>
-      </c>
       <c r="M53" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,29 +4236,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L54" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="Q55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K56" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M56" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q56" t="n">
         <v>50</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44426</v>
+        <v>44371</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,29 +4524,29 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L58" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M58" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
         <v>10000</v>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="Q60" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44426</v>
+        <v>44419</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K61" t="n">
         <v>10000</v>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K62" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L62" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44412</v>
+        <v>44419</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>800</v>
       </c>
       <c r="K63" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L63" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M63" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44412</v>
+        <v>44370</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K64" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L64" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M64" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44412</v>
+        <v>44370</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K65" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L65" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M65" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="Q65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44336</v>
+        <v>44370</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,29 +5100,29 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L66" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M66" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44336</v>
+        <v>44300</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K67" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L67" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M67" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44336</v>
+        <v>44392</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L68" t="n">
         <v>12000</v>
       </c>
       <c r="M68" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q68" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44336</v>
+        <v>44392</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44300</v>
+        <v>44392</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44371</v>
+        <v>44392</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L71" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M71" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="Q71" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44371</v>
+        <v>44384</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L72" t="n">
         <v>14000</v>
       </c>
-      <c r="L72" t="n">
-        <v>15000</v>
-      </c>
       <c r="M72" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q72" t="n">
         <v>30</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44371</v>
+        <v>44322</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K73" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L73" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M73" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="Q73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K74" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>195</v>
+        <v>417</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44314</v>
+        <v>44322</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,24 +5753,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L75" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M75" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44314</v>
+        <v>44433</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K76" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L76" t="n">
         <v>10000</v>
       </c>
-      <c r="L76" t="n">
-        <v>11000</v>
-      </c>
       <c r="M76" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q76" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44364</v>
+        <v>44433</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5897,24 +5897,24 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K77" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L77" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M77" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="Q77" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44364</v>
+        <v>44433</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K78" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L78" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M78" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q78" t="n">
         <v>30</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44364</v>
+        <v>44433</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K79" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L79" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M79" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q79" t="n">
         <v>40</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L80" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M80" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q80" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44435</v>
+        <v>44335</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,24 +6185,24 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K81" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L81" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M81" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="Q81" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44435</v>
+        <v>44335</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K82" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L82" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M82" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q82" t="n">
         <v>30</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44435</v>
+        <v>44335</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L83" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M83" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q83" t="n">
         <v>40</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44435</v>
+        <v>44426</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K84" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L84" t="n">
         <v>10000</v>
       </c>
-      <c r="L84" t="n">
-        <v>11000</v>
-      </c>
       <c r="M84" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44405</v>
+        <v>44426</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
         <v>10000</v>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="Q85" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44405</v>
+        <v>44426</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K86" t="n">
         <v>8000</v>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="Q86" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44405</v>
+        <v>44426</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K87" t="n">
         <v>10000</v>
       </c>
       <c r="L87" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M87" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="Q87" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44405</v>
+        <v>44434</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L88" t="n">
         <v>10000</v>
       </c>
-      <c r="L88" t="n">
-        <v>12000</v>
-      </c>
       <c r="M88" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>800</v>
       </c>
       <c r="K89" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L89" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M89" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K90" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M90" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q90" t="n">
         <v>30</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K91" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L91" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M91" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="Q91" t="n">
         <v>40</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L92" t="n">
         <v>11000</v>
       </c>
-      <c r="L92" t="n">
-        <v>12000</v>
-      </c>
       <c r="M92" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q92" t="n">
         <v>40</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,20 +7053,20 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K93" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L93" t="n">
         <v>12000</v>
       </c>
-      <c r="L93" t="n">
-        <v>13000</v>
-      </c>
       <c r="M93" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="Q93" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7121,24 +7121,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L94" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M94" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="Q94" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,26 +7188,26 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K95" t="n">
         <v>11000</v>
       </c>
       <c r="L95" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M95" t="n">
         <v>12000</v>
       </c>
-      <c r="M95" t="n">
-        <v>11500</v>
-      </c>
       <c r="N95" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q95" t="n">
         <v>40</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,24 +7265,24 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
         <v>700</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M96" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="Q96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44315</v>
+        <v>44420</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L97" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M97" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="Q97" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44315</v>
+        <v>44420</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L98" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M98" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="Q98" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K99" t="n">
         <v>10000</v>
       </c>
       <c r="L99" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M99" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="Q99" t="n">
         <v>30</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K100" t="n">
         <v>8000</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L101" t="n">
         <v>11000</v>
       </c>
-      <c r="L101" t="n">
-        <v>13000</v>
-      </c>
       <c r="M101" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q101" t="n">
         <v>40</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44399</v>
+        <v>44420</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K102" t="n">
         <v>8000</v>
       </c>
       <c r="L102" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M102" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q102" t="n">
         <v>50</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L103" t="n">
         <v>10000</v>
       </c>
-      <c r="L103" t="n">
-        <v>11000</v>
-      </c>
       <c r="M103" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7848,13 +7848,13 @@
         <v>800</v>
       </c>
       <c r="K104" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L104" t="n">
         <v>8000</v>
       </c>
-      <c r="L104" t="n">
-        <v>9000</v>
-      </c>
       <c r="M104" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q104" t="n">
         <v>70</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K106" t="n">
         <v>8000</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K107" t="n">
         <v>10000</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44420</v>
+        <v>44301</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K108" t="n">
         <v>11000</v>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="Q108" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="Q109" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,29 +8268,29 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K110" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L110" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M110" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="Q110" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="Q111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L112" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M112" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="Q112" t="n">
         <v>40</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44420</v>
+        <v>44315</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K113" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L113" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M113" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44307</v>
+        <v>44315</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44307</v>
+        <v>44391</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M115" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="Q115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K116" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L116" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M116" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q116" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K117" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L117" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M117" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="Q117" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,20 +8853,20 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K118" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L118" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M118" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44433</v>
+        <v>44329</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
         <v>1000</v>
       </c>
       <c r="K119" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L119" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M119" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44433</v>
+        <v>44329</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="Q120" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44301</v>
+        <v>44435</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="K121" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L121" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="Q121" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44370</v>
+        <v>44435</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,24 +9137,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K122" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L122" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M122" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44370</v>
+        <v>44435</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="K123" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L123" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M123" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44370</v>
+        <v>44435</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K124" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L124" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M124" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q124" t="n">
         <v>40</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44398</v>
+        <v>44435</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,20 +9357,20 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K125" t="n">
         <v>10000</v>
       </c>
       <c r="L125" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M125" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,29 +9420,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K126" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L126" t="n">
         <v>8000</v>
       </c>
-      <c r="L126" t="n">
-        <v>9000</v>
-      </c>
       <c r="M126" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="Q126" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K127" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L127" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M127" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Q127" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44398</v>
+        <v>44412</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K128" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L128" t="n">
         <v>10000</v>
       </c>
       <c r="M128" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="Q128" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44343</v>
+        <v>44412</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,20 +9645,20 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K129" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="Q129" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9720,17 +9720,17 @@
         <v>600</v>
       </c>
       <c r="K130" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L130" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M130" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>483</v>
+        <v>195</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,24 +9785,24 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>700</v>
       </c>
       <c r="K131" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L131" t="n">
         <v>13000</v>
       </c>
       <c r="M131" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>300</v>
+        <v>417</v>
       </c>
       <c r="Q131" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44343</v>
+        <v>44314</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9852,25 +9852,25 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K132" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L132" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M132" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,12 +9883,300 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="Q132" t="n">
         <v>40</v>
       </c>
       <c r="R132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L133" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M133" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>30</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>700</v>
+      </c>
+      <c r="K134" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L134" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M134" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>40</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K135" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L135" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M135" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>40</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>600</v>
+      </c>
+      <c r="K136" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L136" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>50</v>
+      </c>
+      <c r="R136" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44300</v>
+        <v>44447</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K67" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L67" t="n">
         <v>11000</v>
       </c>
-      <c r="L67" t="n">
-        <v>12000</v>
-      </c>
       <c r="M67" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44392</v>
+        <v>44447</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K68" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L68" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M68" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K69" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L69" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M69" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q69" t="n">
         <v>30</v>
@@ -5388,29 +5388,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K70" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L70" t="n">
         <v>12000</v>
       </c>
       <c r="M70" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q70" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K71" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L71" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M71" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44384</v>
+        <v>44392</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5537,24 +5537,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L72" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M72" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44322</v>
+        <v>44392</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K73" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L73" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M73" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="Q74" t="n">
         <v>30</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
         <v>1000</v>
       </c>
       <c r="K75" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L75" t="n">
         <v>10000</v>
       </c>
-      <c r="L75" t="n">
-        <v>11000</v>
-      </c>
       <c r="M75" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q75" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44433</v>
+        <v>44322</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K76" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M76" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>190</v>
+        <v>417</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44433</v>
+        <v>44322</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K77" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L77" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M77" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="Q77" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K78" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L78" t="n">
         <v>10000</v>
       </c>
-      <c r="L78" t="n">
-        <v>11000</v>
-      </c>
       <c r="M78" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K79" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L79" t="n">
         <v>8000</v>
       </c>
-      <c r="L79" t="n">
-        <v>9000</v>
-      </c>
       <c r="M79" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K80" t="n">
         <v>10000</v>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44335</v>
+        <v>44433</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,29 +6180,29 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K81" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L81" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M81" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="Q81" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44335</v>
+        <v>44433</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K82" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L82" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M82" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q82" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6324,12 +6324,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6408,17 +6408,17 @@
         <v>1000</v>
       </c>
       <c r="K84" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L84" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M84" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q84" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,24 +6473,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K85" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L85" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q85" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K86" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M86" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K87" t="n">
         <v>10000</v>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q87" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K88" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L88" t="n">
         <v>9000</v>
       </c>
-      <c r="L88" t="n">
-        <v>10000</v>
-      </c>
       <c r="M88" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q88" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K89" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L89" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M89" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="Q89" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L90" t="n">
         <v>10000</v>
       </c>
-      <c r="L90" t="n">
-        <v>11000</v>
-      </c>
       <c r="M90" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q90" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K91" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L91" t="n">
         <v>8000</v>
       </c>
-      <c r="L91" t="n">
-        <v>9000</v>
-      </c>
       <c r="M91" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q91" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K92" t="n">
         <v>10000</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q92" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,24 +7049,24 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L93" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M93" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="Q93" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K94" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="Q94" t="n">
         <v>40</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K95" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L95" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M95" t="n">
         <v>11000</v>
       </c>
-      <c r="L95" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M95" t="n">
-        <v>12000</v>
-      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="Q95" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K96" t="n">
         <v>8000</v>
       </c>
       <c r="L96" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M96" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="Q96" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7347,14 +7347,14 @@
         <v>11000</v>
       </c>
       <c r="L97" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M97" t="n">
         <v>12000</v>
       </c>
-      <c r="M97" t="n">
-        <v>11500</v>
-      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K98" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L98" t="n">
         <v>10000</v>
       </c>
       <c r="M98" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K99" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L99" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M99" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L100" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M100" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="Q100" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K101" t="n">
         <v>10000</v>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q101" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K102" t="n">
         <v>8000</v>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="Q102" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K103" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L103" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q103" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K104" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M104" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="Q104" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K105" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L105" t="n">
         <v>10000</v>
       </c>
-      <c r="L105" t="n">
-        <v>11000</v>
-      </c>
       <c r="M105" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q105" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7992,17 +7992,17 @@
         <v>800</v>
       </c>
       <c r="K106" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L106" t="n">
         <v>8000</v>
       </c>
-      <c r="L106" t="n">
-        <v>9000</v>
-      </c>
       <c r="M106" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q106" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K107" t="n">
         <v>10000</v>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q107" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8129,24 +8129,24 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K108" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M108" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="Q108" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L109" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M109" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q109" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,29 +8268,29 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K110" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L110" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M110" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="Q110" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K111" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L111" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M111" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="Q111" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L112" t="n">
         <v>8000</v>
       </c>
-      <c r="L112" t="n">
-        <v>9000</v>
-      </c>
       <c r="M112" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q112" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44315</v>
+        <v>44441</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K113" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L113" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M113" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44315</v>
+        <v>44441</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K114" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L114" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M114" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="Q114" t="n">
         <v>40</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,20 +8637,20 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M115" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="Q115" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8705,24 +8705,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L116" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M116" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K117" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L117" t="n">
         <v>12000</v>
       </c>
       <c r="M117" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,20 +8853,20 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q118" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,16 +8916,16 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K119" t="n">
         <v>11000</v>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q119" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K120" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M120" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44435</v>
+        <v>44329</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K121" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L121" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M121" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q121" t="n">
         <v>50</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44435</v>
+        <v>44329</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K122" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L122" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="Q122" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,20 +9213,20 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K123" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L123" t="n">
         <v>10000</v>
       </c>
-      <c r="L123" t="n">
-        <v>11000</v>
-      </c>
       <c r="M123" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9288,17 +9288,17 @@
         <v>1700</v>
       </c>
       <c r="K124" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L124" t="n">
         <v>8000</v>
       </c>
-      <c r="L124" t="n">
-        <v>9000</v>
-      </c>
       <c r="M124" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1100</v>
+        <v>3400</v>
       </c>
       <c r="K125" t="n">
         <v>10000</v>
@@ -9370,7 +9370,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q125" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,29 +9420,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K126" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L126" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M126" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q126" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44412</v>
+        <v>44435</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K127" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L127" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M127" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Q127" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,20 +9573,20 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K128" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L128" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M128" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9636,29 +9636,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L129" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M129" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q129" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K130" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L130" t="n">
         <v>10000</v>
       </c>
       <c r="M130" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="Q130" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9792,17 +9792,17 @@
         <v>700</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M131" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q131" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>600</v>
       </c>
       <c r="K132" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L132" t="n">
         <v>10000</v>
       </c>
-      <c r="L132" t="n">
-        <v>11000</v>
-      </c>
       <c r="M132" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="Q132" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L133" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="Q133" t="n">
         <v>30</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44399</v>
+        <v>44314</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K134" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M134" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="Q134" t="n">
         <v>40</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L135" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M135" t="n">
         <v>11000</v>
       </c>
-      <c r="L135" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M135" t="n">
-        <v>12000</v>
-      </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="Q135" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,34 +10149,178 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K136" t="n">
         <v>8000</v>
       </c>
       <c r="L136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M136" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>40</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K137" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L137" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M137" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>40</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>600</v>
+      </c>
+      <c r="K138" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L138" t="n">
         <v>10000</v>
       </c>
-      <c r="M136" t="n">
+      <c r="M138" t="n">
         <v>9000</v>
       </c>
-      <c r="N136" t="inlineStr">
+      <c r="N138" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
         <v>180</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="Q138" t="n">
         <v>50</v>
       </c>
-      <c r="R136" t="inlineStr">
+      <c r="R138" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K135" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L135" t="n">
         <v>10000</v>
       </c>
-      <c r="L135" t="n">
-        <v>12000</v>
-      </c>
       <c r="M135" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>367</v>
+        <v>190</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L136" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M136" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q136" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K137" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L137" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M137" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q137" t="n">
         <v>40</v>
@@ -10284,43 +10284,259 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K138" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L138" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M138" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>30</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>700</v>
+      </c>
+      <c r="K139" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L139" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M139" t="n">
+        <v>8500</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>212</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>40</v>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K140" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L140" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M140" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>40</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J138" t="n">
+      <c r="J141" t="n">
         <v>600</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K141" t="n">
         <v>8000</v>
       </c>
-      <c r="L138" t="n">
+      <c r="L141" t="n">
         <v>10000</v>
       </c>
-      <c r="M138" t="n">
+      <c r="M141" t="n">
         <v>9000</v>
       </c>
-      <c r="N138" t="inlineStr">
+      <c r="N141" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P138" t="n">
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
         <v>180</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="Q141" t="n">
         <v>50</v>
       </c>
-      <c r="R138" t="inlineStr">
+      <c r="R141" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M2" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="n">
         <v>50</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,29 +564,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M3" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>483</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M4" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,25 +708,25 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M5" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="n">
         <v>40</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44307</v>
+        <v>44413</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44335</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44335</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,17 +936,17 @@
         <v>1000</v>
       </c>
       <c r="K8" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L8" t="n">
         <v>14000</v>
       </c>
-      <c r="L8" t="n">
-        <v>15000</v>
-      </c>
       <c r="M8" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44377</v>
+        <v>44335</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44315</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44350</v>
+        <v>44454</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M12" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="Q12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44350</v>
+        <v>44454</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L13" t="n">
         <v>11000</v>
       </c>
-      <c r="L13" t="n">
-        <v>12000</v>
-      </c>
       <c r="M13" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44356</v>
+        <v>44398</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44356</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K15" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M15" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44356</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K16" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L16" t="n">
         <v>13000</v>
       </c>
       <c r="M16" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="n">
         <v>40</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44356</v>
+        <v>44398</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K17" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K18" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M18" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L19" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1793,24 +1793,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K20" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M20" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L21" t="n">
         <v>11000</v>
       </c>
-      <c r="L21" t="n">
-        <v>12000</v>
-      </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q21" t="n">
         <v>40</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>1200</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M22" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Q22" t="n">
         <v>50</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K23" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L23" t="n">
         <v>14000</v>
       </c>
-      <c r="L23" t="n">
-        <v>15000</v>
-      </c>
       <c r="M23" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44364</v>
+        <v>44349</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L24" t="n">
         <v>12000</v>
       </c>
-      <c r="L24" t="n">
-        <v>13000</v>
-      </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q24" t="n">
         <v>40</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K25" t="n">
         <v>11000</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K27" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L27" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M27" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,20 +2373,20 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L28" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M28" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L29" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2513,24 +2513,24 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="Q30" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2592,13 +2592,13 @@
         <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L31" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44413</v>
+        <v>44364</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K32" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44413</v>
+        <v>44364</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>800</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>238</v>
+        <v>483</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L34" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44405</v>
+        <v>44377</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2873,24 +2873,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="Q35" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44405</v>
+        <v>44377</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K36" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M36" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="K37" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L37" t="n">
         <v>10000</v>
       </c>
-      <c r="L37" t="n">
-        <v>12000</v>
-      </c>
       <c r="M37" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44308</v>
+        <v>44435</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K38" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M38" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44308</v>
+        <v>44435</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3161,24 +3161,24 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>400</v>
+        <v>3400</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L39" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M39" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,29 +3228,29 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="Q40" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44363</v>
+        <v>44435</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M41" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44363</v>
+        <v>44322</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K42" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L42" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M42" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44363</v>
+        <v>44322</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44328</v>
+        <v>44322</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L44" t="n">
         <v>11000</v>
       </c>
-      <c r="L44" t="n">
-        <v>12000</v>
-      </c>
       <c r="M44" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44328</v>
+        <v>44406</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3600,17 +3600,17 @@
         <v>700</v>
       </c>
       <c r="K45" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M45" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44343</v>
+        <v>44406</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,24 +3665,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>800</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M46" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44343</v>
+        <v>44406</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>483</v>
+        <v>317</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44343</v>
+        <v>44406</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K48" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M48" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="Q48" t="n">
         <v>40</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44343</v>
+        <v>44385</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,20 +3885,20 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K49" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L49" t="n">
         <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44406</v>
+        <v>44385</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K50" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M50" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>190</v>
+        <v>433</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44406</v>
+        <v>44391</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4025,24 +4025,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L51" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M51" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44406</v>
+        <v>44391</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4104,13 +4104,13 @@
         <v>1000</v>
       </c>
       <c r="K52" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44406</v>
+        <v>44391</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K53" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M53" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="Q53" t="n">
         <v>40</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44385</v>
+        <v>44391</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L54" t="n">
         <v>12000</v>
       </c>
-      <c r="L54" t="n">
-        <v>14000</v>
-      </c>
       <c r="M54" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44385</v>
+        <v>44419</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L55" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M55" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>433</v>
+        <v>210</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44371</v>
+        <v>44419</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,24 +4385,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K56" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L56" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M56" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44371</v>
+        <v>44419</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K57" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44371</v>
+        <v>44419</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K58" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L58" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M58" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q58" t="n">
         <v>40</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44419</v>
+        <v>44434</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,24 +4673,24 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L60" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M60" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="Q60" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44419</v>
+        <v>44434</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,29 +4740,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K61" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L61" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M61" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44419</v>
+        <v>44434</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,24 +4817,24 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M62" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44419</v>
+        <v>44434</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K63" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L63" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M63" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="Q63" t="n">
         <v>40</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44370</v>
+        <v>44434</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K64" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L64" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M64" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44370</v>
+        <v>44300</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K65" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L65" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M65" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q65" t="n">
         <v>30</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44370</v>
+        <v>44399</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,24 +5105,24 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K66" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L66" t="n">
         <v>12000</v>
       </c>
-      <c r="L66" t="n">
-        <v>13000</v>
-      </c>
       <c r="M66" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="Q66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44447</v>
+        <v>44399</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5177,24 +5177,24 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L67" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M67" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44447</v>
+        <v>44399</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K68" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L68" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q68" t="n">
         <v>40</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44300</v>
+        <v>44399</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K69" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L69" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M69" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5400,13 +5400,13 @@
         <v>1000</v>
       </c>
       <c r="K70" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L70" t="n">
         <v>10000</v>
       </c>
-      <c r="L70" t="n">
-        <v>12000</v>
-      </c>
       <c r="M70" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="Q70" t="n">
         <v>50</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L71" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M71" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5537,24 +5537,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K72" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L72" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M72" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44392</v>
+        <v>44441</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K73" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L73" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M73" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="Q73" t="n">
         <v>40</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44384</v>
+        <v>44405</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K74" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L74" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M74" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44322</v>
+        <v>44405</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,24 +5753,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L75" t="n">
         <v>9000</v>
       </c>
-      <c r="L75" t="n">
-        <v>10000</v>
-      </c>
       <c r="M75" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="Q75" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44322</v>
+        <v>44405</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L76" t="n">
         <v>12000</v>
       </c>
-      <c r="L76" t="n">
-        <v>13000</v>
-      </c>
       <c r="M76" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="Q76" t="n">
         <v>30</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44322</v>
+        <v>44405</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,26 +5892,26 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K77" t="n">
         <v>10000</v>
       </c>
       <c r="L77" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M77" t="n">
         <v>11000</v>
       </c>
-      <c r="M77" t="n">
-        <v>10500</v>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q77" t="n">
         <v>40</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K78" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L78" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M78" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K79" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M79" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="Q79" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44433</v>
+        <v>44336</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K80" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L80" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M80" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q80" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44433</v>
+        <v>44336</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6185,24 +6185,24 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K81" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M81" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="Q81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44433</v>
+        <v>44336</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,25 +6252,25 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L82" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M82" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q82" t="n">
         <v>40</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K83" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L83" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M83" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="Q83" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44335</v>
+        <v>44426</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6408,17 +6408,17 @@
         <v>1000</v>
       </c>
       <c r="K84" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L84" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M84" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q84" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44335</v>
+        <v>44426</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,24 +6473,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K85" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L85" t="n">
         <v>11000</v>
       </c>
-      <c r="L85" t="n">
-        <v>12000</v>
-      </c>
       <c r="M85" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q85" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K86" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L86" t="n">
         <v>9000</v>
       </c>
-      <c r="L86" t="n">
-        <v>10000</v>
-      </c>
       <c r="M86" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q86" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K87" t="n">
         <v>10000</v>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q87" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44426</v>
+        <v>44328</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K88" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L88" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M88" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44426</v>
+        <v>44328</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,20 +6765,20 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L89" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M89" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q89" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44434</v>
+        <v>44392</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6840,13 +6840,13 @@
         <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M90" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44434</v>
+        <v>44392</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,29 +6900,29 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>800</v>
       </c>
       <c r="K91" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L91" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M91" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="Q91" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44434</v>
+        <v>44392</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,24 +6977,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M92" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44434</v>
+        <v>44392</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K93" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L93" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M93" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q93" t="n">
         <v>40</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44434</v>
+        <v>44448</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K94" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L94" t="n">
         <v>10000</v>
       </c>
-      <c r="L94" t="n">
-        <v>11000</v>
-      </c>
       <c r="M94" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44398</v>
+        <v>44448</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7203,10 +7203,10 @@
         <v>10000</v>
       </c>
       <c r="L95" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M95" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="Q95" t="n">
         <v>30</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44398</v>
+        <v>44448</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,16 +7260,16 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K96" t="n">
         <v>8000</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7347,14 +7347,14 @@
         <v>11000</v>
       </c>
       <c r="L97" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M97" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="Q97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44398</v>
+        <v>44420</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L98" t="n">
         <v>10000</v>
       </c>
       <c r="M98" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L99" t="n">
         <v>11000</v>
       </c>
-      <c r="L99" t="n">
-        <v>12000</v>
-      </c>
       <c r="M99" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="Q99" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K100" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L100" t="n">
         <v>9000</v>
       </c>
-      <c r="L100" t="n">
-        <v>10000</v>
-      </c>
       <c r="M100" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="Q100" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K101" t="n">
         <v>10000</v>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q101" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K102" t="n">
         <v>8000</v>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="Q102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44420</v>
+        <v>44370</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M103" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="Q103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44420</v>
+        <v>44370</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K104" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L104" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M104" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>170</v>
+        <v>483</v>
       </c>
       <c r="Q104" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44427</v>
+        <v>44370</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L105" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M105" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q105" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K106" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L106" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M106" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="Q106" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K107" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L107" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K108" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L108" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q108" t="n">
         <v>40</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K109" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L109" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M109" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q109" t="n">
         <v>40</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K110" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M110" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="Q110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K111" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L111" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M111" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="Q111" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L112" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M112" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="Q112" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8489,11 +8489,11 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
         <v>8000</v>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="Q113" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L114" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M114" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="Q114" t="n">
         <v>40</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K115" t="n">
         <v>13000</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="Q115" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44315</v>
+        <v>44343</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8705,24 +8705,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L116" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M116" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44391</v>
+        <v>44343</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K117" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L117" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M117" t="n">
         <v>12000</v>
       </c>
-      <c r="M117" t="n">
-        <v>11000</v>
-      </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44391</v>
+        <v>44343</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K118" t="n">
         <v>13000</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44391</v>
+        <v>44447</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,24 +8921,24 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K119" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L119" t="n">
         <v>11000</v>
       </c>
-      <c r="L119" t="n">
-        <v>12000</v>
-      </c>
       <c r="M119" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q119" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44391</v>
+        <v>44447</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K120" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L120" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M120" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="Q120" t="n">
         <v>40</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44329</v>
+        <v>44308</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K121" t="n">
         <v>11000</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="Q121" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44329</v>
+        <v>44308</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,24 +9137,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K122" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L122" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M122" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44435</v>
+        <v>44301</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,20 +9213,20 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M123" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q123" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="K124" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L124" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M124" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="Q124" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>3400</v>
+        <v>900</v>
       </c>
       <c r="K125" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L125" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M125" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9425,24 +9425,24 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K126" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L126" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M126" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q126" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,25 +9492,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K127" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L127" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M127" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="Q127" t="n">
         <v>40</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44412</v>
+        <v>44433</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,20 +9573,20 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K128" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L128" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="Q128" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44412</v>
+        <v>44371</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9641,24 +9641,24 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K129" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L129" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M129" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Q129" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44412</v>
+        <v>44371</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K130" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M130" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>317</v>
+        <v>483</v>
       </c>
       <c r="Q130" t="n">
         <v>30</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44412</v>
+        <v>44371</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,25 +9780,25 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K131" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L131" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M131" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="Q131" t="n">
         <v>40</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44314</v>
+        <v>44363</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K132" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M132" t="n">
-        <v>9750</v>
+        <v>14500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="Q132" t="n">
         <v>50</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44314</v>
+        <v>44363</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K133" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M133" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q133" t="n">
         <v>30</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44314</v>
+        <v>44363</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L134" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M134" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="Q134" t="n">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44448</v>
+        <v>44363</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K135" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L135" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M135" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>190</v>
+        <v>362</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44448</v>
+        <v>44356</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,20 +10149,20 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L136" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44448</v>
+        <v>44356</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,20 +10221,20 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K137" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L137" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>212</v>
+        <v>483</v>
       </c>
       <c r="Q137" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44399</v>
+        <v>44356</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10289,24 +10289,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K138" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M138" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44399</v>
+        <v>44356</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K139" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M139" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q139" t="n">
         <v>40</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44399</v>
+        <v>44357</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L140" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M140" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q140" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44399</v>
+        <v>44357</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10500,43 +10500,187 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>800</v>
+      </c>
+      <c r="K141" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L141" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M141" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>30</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>500</v>
+      </c>
+      <c r="K142" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L142" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M142" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>40</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>Segunda</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>600</v>
-      </c>
-      <c r="K141" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L141" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M141" t="n">
-        <v>9000</v>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>$/caja 50 unidades</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P141" t="n">
-        <v>180</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>50</v>
-      </c>
-      <c r="R141" t="inlineStr">
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>500</v>
+      </c>
+      <c r="K143" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M143" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>40</v>
+      </c>
+      <c r="R143" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K110" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L110" t="n">
         <v>9000</v>
       </c>
-      <c r="L110" t="n">
-        <v>10000</v>
-      </c>
       <c r="M110" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,29 +8340,29 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K111" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L111" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M111" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="Q111" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,20 +8421,20 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K112" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L112" t="n">
         <v>10000</v>
       </c>
-      <c r="L112" t="n">
-        <v>11000</v>
-      </c>
       <c r="M112" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q112" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8496,17 +8496,17 @@
         <v>800</v>
       </c>
       <c r="K113" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L113" t="n">
         <v>8000</v>
       </c>
-      <c r="L113" t="n">
-        <v>9000</v>
-      </c>
       <c r="M113" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q113" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K114" t="n">
         <v>10000</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q114" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
         <v>800</v>
       </c>
       <c r="K115" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L115" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M115" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="Q115" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L116" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M116" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K117" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M117" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,20 +8853,20 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q118" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8921,24 +8921,24 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K119" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L119" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M119" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q119" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K120" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q120" t="n">
         <v>40</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K121" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L121" t="n">
         <v>11000</v>
       </c>
-      <c r="L121" t="n">
-        <v>12000</v>
-      </c>
       <c r="M121" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K122" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L122" t="n">
         <v>9000</v>
       </c>
-      <c r="L122" t="n">
-        <v>10000</v>
-      </c>
       <c r="M122" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="Q122" t="n">
         <v>40</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,16 +9276,16 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K124" t="n">
         <v>9000</v>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K125" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L125" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M125" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="Q125" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K126" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L126" t="n">
         <v>10000</v>
       </c>
-      <c r="L126" t="n">
-        <v>11000</v>
-      </c>
       <c r="M126" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q126" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K127" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L127" t="n">
         <v>8000</v>
       </c>
-      <c r="L127" t="n">
-        <v>9000</v>
-      </c>
       <c r="M127" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q127" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K128" t="n">
         <v>10000</v>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q128" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,29 +9636,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K129" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L129" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M129" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="Q129" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K130" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L130" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M130" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9780,29 +9780,29 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M131" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q131" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K132" t="n">
         <v>14000</v>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="Q132" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9929,24 +9929,24 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K133" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L133" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q133" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9996,29 +9996,29 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K134" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M134" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q134" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K135" t="n">
         <v>14000</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q135" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10140,29 +10140,29 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K136" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L136" t="n">
         <v>13000</v>
       </c>
-      <c r="L136" t="n">
-        <v>14000</v>
-      </c>
       <c r="M136" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K137" t="n">
         <v>14000</v>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10284,29 +10284,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K138" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L138" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q138" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K139" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q139" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K140" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L140" t="n">
         <v>13000</v>
       </c>
-      <c r="L140" t="n">
-        <v>14000</v>
-      </c>
       <c r="M140" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K141" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L141" t="n">
         <v>14000</v>
       </c>
-      <c r="L141" t="n">
-        <v>15000</v>
-      </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q141" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K142" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q142" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10644,43 +10644,187 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>800</v>
+      </c>
+      <c r="K143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L143" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M143" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>30</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>500</v>
+      </c>
+      <c r="K144" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L144" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M144" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>40</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J143" t="n">
+      <c r="J145" t="n">
         <v>500</v>
       </c>
-      <c r="K143" t="n">
+      <c r="K145" t="n">
         <v>13000</v>
       </c>
-      <c r="L143" t="n">
+      <c r="L145" t="n">
         <v>14000</v>
       </c>
-      <c r="M143" t="n">
+      <c r="M145" t="n">
         <v>13500</v>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="N145" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P143" t="n">
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
         <v>338</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="Q145" t="n">
         <v>40</v>
       </c>
-      <c r="R143" t="inlineStr">
+      <c r="R145" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M142" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Q142" t="n">
         <v>50</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q143" t="n">
         <v>30</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,25 +10716,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K144" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L144" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M144" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="Q144" t="n">
         <v>40</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K145" t="n">
         <v>13000</v>
@@ -10810,21 +10810,237 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>50</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>800</v>
+      </c>
+      <c r="K146" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L146" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M146" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>30</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>500</v>
+      </c>
+      <c r="K147" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L147" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M147" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P145" t="n">
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>40</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>500</v>
+      </c>
+      <c r="K148" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M148" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
         <v>338</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="Q148" t="n">
         <v>40</v>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="R148" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L18" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M18" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44314</v>
+        <v>44462</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1721,24 +1721,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K19" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L19" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M19" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44314</v>
+        <v>44462</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M20" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>417</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44314</v>
+        <v>44462</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L21" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M21" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="Q21" t="n">
         <v>40</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K22" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L22" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M22" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L23" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M23" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2081,24 +2081,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K24" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L24" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M24" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44349</v>
+        <v>44314</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,25 +2148,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K25" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L25" t="n">
         <v>11000</v>
       </c>
-      <c r="L25" t="n">
-        <v>12000</v>
-      </c>
       <c r="M25" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q25" t="n">
         <v>40</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K26" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L26" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M26" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q26" t="n">
         <v>50</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K27" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Q27" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L28" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M28" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K29" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="Q29" t="n">
         <v>40</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2520,13 +2520,13 @@
         <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M30" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q30" t="n">
         <v>50</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,20 +2733,20 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>483</v>
+        <v>238</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L34" t="n">
         <v>12000</v>
       </c>
-      <c r="L34" t="n">
-        <v>13000</v>
-      </c>
       <c r="M34" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44377</v>
+        <v>44329</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K35" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L35" t="n">
         <v>14000</v>
       </c>
-      <c r="L35" t="n">
-        <v>15000</v>
-      </c>
       <c r="M35" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44377</v>
+        <v>44364</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44435</v>
+        <v>44364</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q37" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44435</v>
+        <v>44364</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K38" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L38" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="Q38" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44435</v>
+        <v>44377</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K39" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44435</v>
+        <v>44377</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3233,24 +3233,24 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L40" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="K41" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L41" t="n">
         <v>10000</v>
       </c>
-      <c r="L41" t="n">
-        <v>11000</v>
-      </c>
       <c r="M41" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44322</v>
+        <v>44435</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3377,24 +3377,24 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K42" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44322</v>
+        <v>44435</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1600</v>
+        <v>3400</v>
       </c>
       <c r="K43" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L43" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M43" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44322</v>
+        <v>44435</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="Q44" t="n">
         <v>40</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44406</v>
+        <v>44435</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,20 +3597,20 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K45" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M45" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44406</v>
+        <v>44322</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,24 +3665,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K46" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L46" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M46" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="Q46" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44406</v>
+        <v>44322</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K47" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M47" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44406</v>
+        <v>44322</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3804,25 +3804,25 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K48" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L48" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M48" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q48" t="n">
         <v>40</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K49" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L49" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M49" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q49" t="n">
         <v>50</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44391</v>
+        <v>44406</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K51" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L51" t="n">
         <v>10000</v>
       </c>
-      <c r="L51" t="n">
-        <v>12000</v>
-      </c>
       <c r="M51" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44391</v>
+        <v>44406</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K52" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M52" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K53" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L53" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="Q53" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L54" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4323,11 +4323,11 @@
         <v>10000</v>
       </c>
       <c r="L55" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M55" t="n">
         <v>11000</v>
       </c>
-      <c r="M55" t="n">
-        <v>10500</v>
-      </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>$/caja 50 unidades</t>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K56" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L56" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="Q56" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4457,24 +4457,24 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L57" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M57" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K58" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L58" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q58" t="n">
         <v>40</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="Q59" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,24 +4673,24 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L60" t="n">
         <v>9000</v>
       </c>
-      <c r="L60" t="n">
-        <v>10000</v>
-      </c>
       <c r="M60" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,29 +4740,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K61" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L61" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M61" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="Q61" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4817,24 +4817,24 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="K62" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L62" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M62" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,25 +4884,25 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K63" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L63" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M63" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="Q63" t="n">
         <v>40</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K64" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L64" t="n">
         <v>10000</v>
       </c>
-      <c r="L64" t="n">
-        <v>11000</v>
-      </c>
       <c r="M64" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44300</v>
+        <v>44434</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K65" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L65" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M65" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5115,10 +5115,10 @@
         <v>10000</v>
       </c>
       <c r="L66" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M66" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="Q66" t="n">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L68" t="n">
         <v>11000</v>
       </c>
-      <c r="L68" t="n">
-        <v>13000</v>
-      </c>
       <c r="M68" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q68" t="n">
         <v>40</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K69" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L69" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M69" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K70" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L70" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M70" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>190</v>
+        <v>367</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K71" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L71" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M71" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="Q71" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K72" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L72" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M72" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,24 +5609,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
         <v>8000</v>
       </c>
       <c r="L73" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M73" t="n">
         <v>9000</v>
       </c>
-      <c r="M73" t="n">
-        <v>8500</v>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="Q73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5688,13 +5688,13 @@
         <v>1000</v>
       </c>
       <c r="K74" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L74" t="n">
         <v>10000</v>
       </c>
-      <c r="L74" t="n">
-        <v>11000</v>
-      </c>
       <c r="M74" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="Q74" t="n">
         <v>50</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K75" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L75" t="n">
         <v>8000</v>
       </c>
-      <c r="L75" t="n">
-        <v>9000</v>
-      </c>
       <c r="M75" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="Q75" t="n">
         <v>70</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L76" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M76" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="Q76" t="n">
         <v>30</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5904,13 +5904,13 @@
         <v>700</v>
       </c>
       <c r="K77" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L77" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M77" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="Q77" t="n">
         <v>40</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K78" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L78" t="n">
         <v>11000</v>
       </c>
-      <c r="L78" t="n">
-        <v>12000</v>
-      </c>
       <c r="M78" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L79" t="n">
         <v>9000</v>
       </c>
-      <c r="L79" t="n">
-        <v>10000</v>
-      </c>
       <c r="M79" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L80" t="n">
         <v>12000</v>
       </c>
       <c r="M80" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="Q80" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L81" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M81" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="Q81" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,11 +6257,11 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K82" t="n">
         <v>11000</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q82" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K83" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L83" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M83" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="Q83" t="n">
         <v>40</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K84" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L84" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M84" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q84" t="n">
         <v>50</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K85" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L85" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M85" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K86" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L86" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M86" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q86" t="n">
         <v>40</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L87" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M87" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="Q87" t="n">
         <v>40</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L88" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M88" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K89" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L89" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M89" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,29 +6828,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K90" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L90" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M90" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q90" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K91" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L91" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M91" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q91" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,16 +6972,16 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
         <v>11000</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,20 +7053,20 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K93" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L93" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M93" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q93" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M94" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q94" t="n">
         <v>50</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L95" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M95" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q95" t="n">
         <v>30</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,25 +7260,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L96" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M96" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q96" t="n">
         <v>40</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44420</v>
+        <v>44392</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K97" t="n">
         <v>11000</v>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7409,11 +7409,11 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K98" t="n">
         <v>9000</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="Q98" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="K99" t="n">
         <v>10000</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,12 +7548,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K101" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L101" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M101" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="Q101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K102" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M102" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="Q102" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K103" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L103" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K104" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L104" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M104" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K105" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L105" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M105" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="Q105" t="n">
         <v>40</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44350</v>
+        <v>44420</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,25 +7980,25 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K106" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L106" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M106" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="Q106" t="n">
         <v>50</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K107" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M107" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="Q107" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8129,24 +8129,24 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K108" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M108" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q108" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L109" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M109" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q109" t="n">
         <v>40</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K110" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L110" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M110" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K111" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M111" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K112" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L112" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q112" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K113" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L113" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M113" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="Q113" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K114" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L114" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M114" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,24 +8633,24 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K115" t="n">
         <v>8000</v>
       </c>
       <c r="L115" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M115" t="n">
         <v>9000</v>
       </c>
-      <c r="M115" t="n">
-        <v>8500</v>
-      </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q115" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K116" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L116" t="n">
         <v>10000</v>
       </c>
-      <c r="L116" t="n">
-        <v>11000</v>
-      </c>
       <c r="M116" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8777,24 +8777,24 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
         <v>800</v>
       </c>
       <c r="K117" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L117" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M117" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K118" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L118" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M118" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q118" t="n">
         <v>30</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K119" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L119" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M119" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q119" t="n">
         <v>40</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K120" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M120" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="Q120" t="n">
         <v>40</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K121" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L121" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M121" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q121" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,20 +9141,20 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K122" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L122" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M122" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>212</v>
+        <v>483</v>
       </c>
       <c r="Q122" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44308</v>
+        <v>44343</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9209,24 +9209,24 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K123" t="n">
         <v>11000</v>
       </c>
       <c r="L123" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M123" t="n">
         <v>12000</v>
       </c>
-      <c r="M123" t="n">
-        <v>11500</v>
-      </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44308</v>
+        <v>44343</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K124" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L124" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="Q124" t="n">
         <v>40</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44301</v>
+        <v>44447</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K125" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L125" t="n">
         <v>11000</v>
       </c>
-      <c r="L125" t="n">
-        <v>12000</v>
-      </c>
       <c r="M125" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44433</v>
+        <v>44447</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9432,17 +9432,17 @@
         <v>1200</v>
       </c>
       <c r="K126" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L126" t="n">
         <v>9000</v>
       </c>
-      <c r="L126" t="n">
-        <v>10000</v>
-      </c>
       <c r="M126" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q126" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K127" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L127" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M127" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="Q127" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9569,24 +9569,24 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K128" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L128" t="n">
         <v>10000</v>
       </c>
-      <c r="L128" t="n">
-        <v>11000</v>
-      </c>
       <c r="M128" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9641,24 +9641,24 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K129" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M129" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="Q129" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K130" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L130" t="n">
         <v>10000</v>
       </c>
-      <c r="L130" t="n">
-        <v>11000</v>
-      </c>
       <c r="M130" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q130" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9785,24 +9785,24 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>900</v>
       </c>
       <c r="K131" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L131" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M131" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K132" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L132" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M132" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K133" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L133" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M133" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q133" t="n">
         <v>40</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44363</v>
+        <v>44433</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M134" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L135" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M135" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L136" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M136" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q136" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
         <v>500</v>
       </c>
       <c r="K137" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M137" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q137" t="n">
         <v>40</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K138" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L138" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M138" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q138" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K139" t="n">
         <v>14000</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K141" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L141" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M141" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="Q141" t="n">
         <v>40</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K142" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L142" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="Q142" t="n">
         <v>50</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q143" t="n">
         <v>30</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,25 +10716,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K144" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L144" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M144" t="n">
-        <v>6500</v>
+        <v>12500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="Q144" t="n">
         <v>40</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K145" t="n">
         <v>13000</v>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,20 +10869,20 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L146" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M146" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>483</v>
+        <v>150</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K147" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M147" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K148" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L148" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M148" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,12 +11035,300 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>338</v>
+        <v>162</v>
       </c>
       <c r="Q148" t="n">
         <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>700</v>
+      </c>
+      <c r="K149" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L149" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M149" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>50</v>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>800</v>
+      </c>
+      <c r="K150" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L150" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M150" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>30</v>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>500</v>
+      </c>
+      <c r="K151" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L151" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M151" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>40</v>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>500</v>
+      </c>
+      <c r="K152" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L152" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M152" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>338</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>40</v>
+      </c>
+      <c r="R152" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K127" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L127" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M127" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,20 +9573,20 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K128" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L128" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M128" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q128" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44301</v>
+        <v>44468</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K129" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="Q129" t="n">
         <v>30</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K130" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L130" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M130" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q130" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K131" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L131" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M131" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="Q131" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K132" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L132" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M132" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K133" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M133" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q133" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9996,29 +9996,29 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K134" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L134" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M134" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q134" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K135" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L135" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M135" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K136" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L136" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M136" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
         <v>500</v>
       </c>
       <c r="K137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L137" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M137" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="Q137" t="n">
         <v>40</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K138" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L138" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M138" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q138" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K139" t="n">
         <v>14000</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K141" t="n">
         <v>14000</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="Q141" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10584,17 +10584,17 @@
         <v>800</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M142" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="Q142" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10649,24 +10649,24 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M143" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q143" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,25 +10716,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
         <v>500</v>
       </c>
       <c r="K144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="Q144" t="n">
         <v>40</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K145" t="n">
         <v>13000</v>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q145" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,20 +10869,20 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K146" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L146" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M146" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q146" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L147" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M147" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="K148" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L148" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M148" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="Q148" t="n">
         <v>40</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K149" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M149" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K150" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M150" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11220,25 +11220,25 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K151" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L151" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M151" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="Q151" t="n">
         <v>40</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K152" t="n">
         <v>13000</v>
@@ -11314,21 +11314,237 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>50</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>800</v>
+      </c>
+      <c r="K153" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L153" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M153" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>30</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>500</v>
+      </c>
+      <c r="K154" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L154" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M154" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P152" t="n">
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>40</v>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>500</v>
+      </c>
+      <c r="K155" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L155" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M155" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
         <v>338</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="Q155" t="n">
         <v>40</v>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="R155" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K53" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M53" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q53" t="n">
         <v>50</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,29 +4236,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K54" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M54" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44391</v>
+        <v>44469</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K55" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L55" t="n">
         <v>10000</v>
       </c>
-      <c r="L55" t="n">
-        <v>12000</v>
-      </c>
       <c r="M55" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4392,17 +4392,17 @@
         <v>1000</v>
       </c>
       <c r="K56" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L56" t="n">
         <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4457,24 +4457,24 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K57" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L57" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="Q57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K58" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L58" t="n">
         <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K59" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L60" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="Q60" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44419</v>
+        <v>44391</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K61" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L61" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M61" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K62" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L62" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M62" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q62" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>800</v>
       </c>
       <c r="K63" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L63" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M63" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="Q63" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K64" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M64" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,20 +5037,20 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K65" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L65" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M65" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="Q65" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K66" t="n">
         <v>10000</v>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q66" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5172,29 +5172,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K67" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L67" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M67" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q67" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K68" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L68" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M68" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q68" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44300</v>
+        <v>44434</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L69" t="n">
         <v>11000</v>
       </c>
-      <c r="L69" t="n">
-        <v>12000</v>
-      </c>
       <c r="M69" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q69" t="n">
         <v>30</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,24 +5393,24 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K70" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L70" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M70" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L71" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M71" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="Q71" t="n">
         <v>40</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K72" t="n">
         <v>11000</v>
       </c>
       <c r="L72" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M72" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="Q72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K73" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L73" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M73" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>180</v>
+        <v>367</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L74" t="n">
         <v>9000</v>
       </c>
-      <c r="L74" t="n">
-        <v>10000</v>
-      </c>
       <c r="M74" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L75" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M75" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="Q75" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
         <v>8000</v>
       </c>
       <c r="L76" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M76" t="n">
         <v>9000</v>
       </c>
-      <c r="M76" t="n">
-        <v>8500</v>
-      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="Q76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K77" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L77" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M77" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q77" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5969,24 +5969,24 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K78" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L78" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M78" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,16 +6036,16 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K79" t="n">
         <v>8000</v>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="Q79" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6120,17 +6120,17 @@
         <v>700</v>
       </c>
       <c r="K80" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L80" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M80" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>367</v>
+        <v>212</v>
       </c>
       <c r="Q80" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K81" t="n">
         <v>10000</v>
       </c>
       <c r="L81" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M81" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="Q81" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,29 +6252,29 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K82" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L82" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M82" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>383</v>
+        <v>121</v>
       </c>
       <c r="Q82" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44307</v>
+        <v>44405</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6329,24 +6329,24 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K83" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L83" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M83" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>238</v>
+        <v>367</v>
       </c>
       <c r="Q83" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K84" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L84" t="n">
         <v>12000</v>
       </c>
       <c r="M84" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="Q84" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K85" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L85" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K86" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L86" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M86" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Q86" t="n">
         <v>40</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M87" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="Q87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K88" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L88" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M88" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q88" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K89" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L89" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M89" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q89" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>800</v>
       </c>
       <c r="K90" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L90" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M90" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q90" t="n">
         <v>40</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L91" t="n">
         <v>10000</v>
       </c>
-      <c r="L91" t="n">
-        <v>11000</v>
-      </c>
       <c r="M91" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,20 +6981,20 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L92" t="n">
         <v>11000</v>
       </c>
-      <c r="L92" t="n">
-        <v>12000</v>
-      </c>
       <c r="M92" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="Q92" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,24 +7049,24 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K93" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L93" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M93" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>417</v>
+        <v>212</v>
       </c>
       <c r="Q93" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K94" t="n">
         <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="Q94" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K95" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M95" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,24 +7265,24 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L96" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M96" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q96" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K97" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L97" t="n">
         <v>12000</v>
       </c>
       <c r="M97" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K98" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L98" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M98" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7481,24 +7481,24 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K99" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L99" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M99" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44448</v>
+        <v>44392</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K100" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L100" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M100" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q100" t="n">
         <v>40</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K101" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L101" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M101" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="Q101" t="n">
         <v>50</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,29 +7692,29 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K102" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L102" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M102" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="Q102" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K103" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M103" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K104" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L104" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M104" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K105" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L105" t="n">
         <v>10000</v>
       </c>
-      <c r="L105" t="n">
-        <v>11000</v>
-      </c>
       <c r="M105" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="Q105" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7980,29 +7980,29 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L106" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M106" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="Q106" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,29 +8052,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L107" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M107" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="Q107" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K108" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M108" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q108" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K109" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L109" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M109" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>312</v>
+        <v>170</v>
       </c>
       <c r="Q109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K110" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M110" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L111" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M111" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44350</v>
+        <v>44370</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M112" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q112" t="n">
         <v>40</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K113" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L113" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M113" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K114" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L114" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M114" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="Q114" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,24 +8633,24 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K115" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L115" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M115" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q115" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44427</v>
+        <v>44350</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K116" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M116" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q116" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -8787,14 +8787,14 @@
         <v>7000</v>
       </c>
       <c r="L117" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M117" t="n">
         <v>8000</v>
       </c>
-      <c r="M117" t="n">
-        <v>7500</v>
-      </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="Q117" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44427</v>
+        <v>44455</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="K118" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L118" t="n">
         <v>10000</v>
       </c>
-      <c r="L118" t="n">
-        <v>11000</v>
-      </c>
       <c r="M118" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q118" t="n">
         <v>30</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K119" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L119" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M119" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K120" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L120" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M120" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q120" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L121" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M121" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q121" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,24 +9137,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K122" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L122" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M122" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K123" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L123" t="n">
         <v>11000</v>
       </c>
-      <c r="L123" t="n">
-        <v>13000</v>
-      </c>
       <c r="M123" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q123" t="n">
         <v>40</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K124" t="n">
         <v>13000</v>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K125" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L125" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M125" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K126" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L126" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M126" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q126" t="n">
         <v>40</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44468</v>
+        <v>44343</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K127" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L127" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M127" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
         <v>1100</v>
       </c>
       <c r="K128" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L128" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Q128" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,20 +9645,20 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K129" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L129" t="n">
         <v>9000</v>
       </c>
-      <c r="L129" t="n">
-        <v>10000</v>
-      </c>
       <c r="M129" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="Q129" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K130" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L130" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M130" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K131" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L131" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M131" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q131" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44301</v>
+        <v>44468</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K132" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M132" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,20 +9933,20 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K133" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L133" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M133" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44433</v>
+        <v>44308</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K134" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L134" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M134" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="Q134" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44433</v>
+        <v>44301</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K135" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L135" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M135" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="Q135" t="n">
         <v>30</v>
@@ -10140,29 +10140,29 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K136" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q136" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K137" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L137" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M137" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q137" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K138" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L138" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q138" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,24 +10361,24 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K139" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L139" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M139" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q139" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,25 +10428,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
         <v>500</v>
       </c>
       <c r="K140" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L140" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M140" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="Q140" t="n">
         <v>40</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K141" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K142" t="n">
         <v>14000</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44363</v>
+        <v>44371</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K144" t="n">
         <v>14000</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="Q144" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10800,17 +10800,17 @@
         <v>800</v>
       </c>
       <c r="K145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L145" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M145" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L146" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M146" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44356</v>
+        <v>44363</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10932,25 +10932,25 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M147" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="Q147" t="n">
         <v>40</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K148" t="n">
         <v>13000</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q148" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K149" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L149" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M149" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K150" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L150" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M150" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44461</v>
+        <v>44356</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
       <c r="K151" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L151" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M151" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="Q151" t="n">
         <v>40</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L152" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M152" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="Q152" t="n">
         <v>50</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K153" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L153" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M153" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q153" t="n">
         <v>30</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11436,25 +11436,25 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K154" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L154" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M154" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="Q154" t="n">
         <v>40</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K155" t="n">
         <v>13000</v>
@@ -11530,21 +11530,237 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>50</v>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>800</v>
+      </c>
+      <c r="K156" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L156" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M156" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>30</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>500</v>
+      </c>
+      <c r="K157" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L157" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M157" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P155" t="n">
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>40</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>500</v>
+      </c>
+      <c r="K158" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L158" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M158" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
         <v>338</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q158" t="n">
         <v>40</v>
       </c>
-      <c r="R155" t="inlineStr">
+      <c r="R158" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L2" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="Q2" t="n">
         <v>50</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44413</v>
+        <v>44329</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,29 +564,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>93</v>
+        <v>450</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L4" t="n">
         <v>10000</v>
       </c>
-      <c r="L4" t="n">
-        <v>11000</v>
-      </c>
       <c r="M4" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="Q5" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K6" t="n">
         <v>9000</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44335</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44335</v>
+        <v>44455</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M8" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44335</v>
+        <v>44455</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K9" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44315</v>
+        <v>44398</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="Q10" t="n">
         <v>30</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44315</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M11" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="Q11" t="n">
         <v>40</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K12" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44454</v>
+        <v>44398</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,29 +1284,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K13" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L13" t="n">
         <v>10000</v>
       </c>
-      <c r="L13" t="n">
-        <v>11000</v>
-      </c>
       <c r="M13" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44398</v>
+        <v>44441</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L14" t="n">
         <v>10000</v>
       </c>
-      <c r="L14" t="n">
-        <v>12000</v>
-      </c>
       <c r="M14" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>367</v>
+        <v>190</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44441</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L15" t="n">
         <v>8000</v>
       </c>
-      <c r="L15" t="n">
-        <v>9000</v>
-      </c>
       <c r="M15" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44441</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L16" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="Q16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44398</v>
+        <v>44441</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1587,14 +1587,14 @@
         <v>8000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M17" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K18" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L18" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M18" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K19" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="Q19" t="n">
         <v>70</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M20" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,25 +1860,25 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K21" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="Q21" t="n">
         <v>40</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44384</v>
+        <v>44420</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K22" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44314</v>
+        <v>44420</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K23" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L23" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M23" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="Q23" t="n">
         <v>50</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44314</v>
+        <v>44462</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,20 +2085,20 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K24" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44314</v>
+        <v>44462</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K25" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L25" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M25" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44349</v>
+        <v>44462</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K26" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44349</v>
+        <v>44462</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>450</v>
+        <v>162</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44349</v>
+        <v>44371</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K28" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M28" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44349</v>
+        <v>44371</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K29" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44412</v>
+        <v>44371</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L30" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2585,24 +2585,24 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K31" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M31" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="Q31" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K32" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L32" t="n">
         <v>9000</v>
       </c>
-      <c r="L32" t="n">
-        <v>10000</v>
-      </c>
       <c r="M32" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>317</v>
+        <v>121</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44412</v>
+        <v>44405</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2736,17 +2736,17 @@
         <v>700</v>
       </c>
       <c r="K33" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>238</v>
+        <v>367</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44329</v>
+        <v>44405</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K34" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L34" t="n">
         <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44329</v>
+        <v>44399</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M35" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,29 +2940,29 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M36" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L38" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M38" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="Q38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44377</v>
+        <v>44364</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K39" t="n">
         <v>14000</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44377</v>
+        <v>44364</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K40" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44435</v>
+        <v>44364</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K41" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44435</v>
+        <v>44419</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3377,24 +3377,24 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="Q42" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44435</v>
+        <v>44419</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,29 +3444,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3400</v>
+        <v>800</v>
       </c>
       <c r="K43" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44435</v>
+        <v>44419</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3521,24 +3521,24 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K44" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L44" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44435</v>
+        <v>44419</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="Q45" t="n">
         <v>40</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44322</v>
+        <v>44419</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K46" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L46" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M46" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44322</v>
+        <v>44370</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L47" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M47" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44322</v>
+        <v>44370</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3809,24 +3809,24 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K48" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>262</v>
+        <v>483</v>
       </c>
       <c r="Q48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44406</v>
+        <v>44370</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,29 +3876,29 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K49" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M49" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44406</v>
+        <v>44412</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K50" t="n">
         <v>7000</v>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="Q50" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44406</v>
+        <v>44412</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L51" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M51" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44406</v>
+        <v>44412</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="n">
         <v>9000</v>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="Q52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44469</v>
+        <v>44412</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K53" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L53" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M53" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44469</v>
+        <v>44336</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4241,24 +4241,24 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K54" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L54" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M54" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Q54" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44469</v>
+        <v>44336</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4320,13 +4320,13 @@
         <v>1200</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44385</v>
+        <v>44336</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K56" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L56" t="n">
         <v>12000</v>
       </c>
-      <c r="L56" t="n">
-        <v>14000</v>
-      </c>
       <c r="M56" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44385</v>
+        <v>44336</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K57" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L57" t="n">
         <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44391</v>
+        <v>44308</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L58" t="n">
         <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>220</v>
+        <v>383</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44391</v>
+        <v>44308</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4601,24 +4601,24 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K59" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M59" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,29 +4668,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K60" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L60" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M60" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="Q60" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4749,20 +4749,20 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K61" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M61" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44419</v>
+        <v>44322</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,16 +4812,16 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K62" t="n">
         <v>10000</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44419</v>
+        <v>44315</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K63" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L63" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M63" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>121</v>
+        <v>450</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44419</v>
+        <v>44315</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4961,24 +4961,24 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K64" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L64" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M64" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44419</v>
+        <v>44343</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K65" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L65" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M65" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="Q65" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44419</v>
+        <v>44343</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K66" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L66" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>262</v>
+        <v>483</v>
       </c>
       <c r="Q66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44434</v>
+        <v>44343</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,29 +5172,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K67" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L67" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M67" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="Q67" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44434</v>
+        <v>44343</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L68" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M68" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="Q68" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44434</v>
+        <v>44447</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K69" t="n">
         <v>10000</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44434</v>
+        <v>44447</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,16 +5388,16 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K70" t="n">
         <v>8000</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44434</v>
+        <v>44356</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K71" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L71" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M71" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44300</v>
+        <v>44356</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K72" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L72" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="Q72" t="n">
         <v>30</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44399</v>
+        <v>44356</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,24 +5609,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K73" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M73" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44399</v>
+        <v>44356</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K74" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q74" t="n">
         <v>40</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44399</v>
+        <v>44454</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5760,17 +5760,17 @@
         <v>1000</v>
       </c>
       <c r="K75" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L75" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M75" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="Q75" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44399</v>
+        <v>44454</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="K76" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L76" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M76" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K78" t="n">
         <v>7000</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K79" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L79" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M79" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="Q79" t="n">
         <v>30</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44441</v>
+        <v>44427</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,16 +6108,16 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K80" t="n">
         <v>8000</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44405</v>
+        <v>44427</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K81" t="n">
         <v>10000</v>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="Q81" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44405</v>
+        <v>44413</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,11 +6257,11 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K82" t="n">
         <v>8000</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="Q82" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44405</v>
+        <v>44413</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K83" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L83" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M83" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>367</v>
+        <v>93</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44405</v>
+        <v>44413</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K84" t="n">
         <v>10000</v>
       </c>
       <c r="L84" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M84" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="Q84" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44307</v>
+        <v>44413</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6473,24 +6473,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K85" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L85" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M85" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>383</v>
+        <v>188</v>
       </c>
       <c r="Q85" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44307</v>
+        <v>44413</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,16 +6540,16 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K86" t="n">
         <v>9000</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L87" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M87" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="Q87" t="n">
         <v>50</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K88" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M88" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q88" t="n">
         <v>30</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K89" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L89" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M89" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="Q89" t="n">
         <v>40</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K90" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M90" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="Q90" t="n">
         <v>40</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44426</v>
+        <v>44469</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K91" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L91" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M91" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="Q91" t="n">
         <v>50</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44426</v>
+        <v>44469</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M92" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44426</v>
+        <v>44469</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7049,24 +7049,24 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K93" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L93" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M93" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="Q93" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L94" t="n">
         <v>10000</v>
       </c>
-      <c r="L94" t="n">
-        <v>11000</v>
-      </c>
       <c r="M94" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44328</v>
+        <v>44434</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7193,24 +7193,24 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L95" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M95" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="Q95" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44328</v>
+        <v>44434</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K96" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L96" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M96" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="Q96" t="n">
         <v>30</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44392</v>
+        <v>44434</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K97" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L97" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M97" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44392</v>
+        <v>44434</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K98" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L98" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M98" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q98" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K99" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L99" t="n">
         <v>12000</v>
       </c>
       <c r="M99" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L100" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M100" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q100" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44448</v>
+        <v>44391</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K101" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L101" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M101" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q101" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44448</v>
+        <v>44391</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K102" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L102" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M102" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q102" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44448</v>
+        <v>44335</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K103" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L103" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44420</v>
+        <v>44335</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K104" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M104" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="Q104" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44420</v>
+        <v>44335</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L105" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M105" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="Q105" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44420</v>
+        <v>44475</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K106" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L106" t="n">
         <v>10000</v>
       </c>
-      <c r="L106" t="n">
-        <v>11000</v>
-      </c>
       <c r="M106" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44420</v>
+        <v>44475</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
         <v>1100</v>
       </c>
       <c r="K107" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L107" t="n">
         <v>8000</v>
       </c>
-      <c r="L107" t="n">
-        <v>9000</v>
-      </c>
       <c r="M107" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="Q107" t="n">
         <v>40</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44420</v>
+        <v>44300</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K108" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L108" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="Q108" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44420</v>
+        <v>44349</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K109" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L109" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M109" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="Q109" t="n">
         <v>50</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44370</v>
+        <v>44349</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K110" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L110" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M110" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44370</v>
+        <v>44349</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
         <v>800</v>
       </c>
       <c r="K111" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L111" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M111" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q111" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44370</v>
+        <v>44349</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K112" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L112" t="n">
         <v>12000</v>
       </c>
-      <c r="L112" t="n">
-        <v>13000</v>
-      </c>
       <c r="M112" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q112" t="n">
         <v>40</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44455</v>
+        <v>44448</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K117" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L117" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M117" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="Q117" t="n">
         <v>50</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44455</v>
+        <v>44448</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K118" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L118" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M118" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q118" t="n">
         <v>30</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44427</v>
+        <v>44448</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,20 +8925,20 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K119" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L119" t="n">
         <v>9000</v>
       </c>
-      <c r="L119" t="n">
-        <v>10000</v>
-      </c>
       <c r="M119" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q119" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8993,24 +8993,24 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K120" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L120" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="Q120" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K121" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L121" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M121" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44427</v>
+        <v>44435</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K122" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L122" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M122" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q122" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44427</v>
+        <v>44435</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,29 +9204,29 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K123" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L123" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M123" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q123" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="K124" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M124" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,24 +9353,24 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K125" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L125" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M125" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K126" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L126" t="n">
         <v>11000</v>
       </c>
-      <c r="L126" t="n">
-        <v>13000</v>
-      </c>
       <c r="M126" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q126" t="n">
         <v>40</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44343</v>
+        <v>44377</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K127" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L127" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M127" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="Q127" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44447</v>
+        <v>44377</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K128" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M128" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44447</v>
+        <v>44433</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9648,17 +9648,17 @@
         <v>1200</v>
       </c>
       <c r="K129" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q129" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44468</v>
+        <v>44433</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,11 +9713,11 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K130" t="n">
         <v>7000</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="Q130" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44468</v>
+        <v>44433</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,29 +9780,29 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K131" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L131" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Q131" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44468</v>
+        <v>44433</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9857,24 +9857,24 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K132" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L132" t="n">
         <v>9000</v>
       </c>
-      <c r="L132" t="n">
-        <v>10000</v>
-      </c>
       <c r="M132" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44308</v>
+        <v>44433</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9936,17 +9936,17 @@
         <v>500</v>
       </c>
       <c r="K133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L133" t="n">
         <v>11000</v>
       </c>
-      <c r="L133" t="n">
-        <v>12000</v>
-      </c>
       <c r="M133" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="Q133" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,24 +10001,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K134" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M134" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>238</v>
+        <v>383</v>
       </c>
       <c r="Q134" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K135" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L135" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M135" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>383</v>
+        <v>238</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44433</v>
+        <v>44468</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K136" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L136" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M136" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="Q136" t="n">
         <v>50</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44433</v>
+        <v>44468</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K137" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L137" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M137" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="Q137" t="n">
         <v>70</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44433</v>
+        <v>44468</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="K138" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L138" t="n">
         <v>10000</v>
       </c>
-      <c r="L138" t="n">
-        <v>11000</v>
-      </c>
       <c r="M138" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="Q138" t="n">
         <v>30</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44433</v>
+        <v>44384</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,24 +10361,24 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K139" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M139" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="Q139" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44433</v>
+        <v>44363</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K140" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M140" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Q140" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44371</v>
+        <v>44363</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K141" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L141" t="n">
         <v>15000</v>
       </c>
-      <c r="L141" t="n">
-        <v>16000</v>
-      </c>
       <c r="M141" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="Q141" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44371</v>
+        <v>44363</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,24 +10577,24 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L142" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M142" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44371</v>
+        <v>44363</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
         <v>500</v>
       </c>
       <c r="K143" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L143" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="Q143" t="n">
         <v>40</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44363</v>
+        <v>44301</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,20 +10725,20 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K144" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L144" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M144" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="Q144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44363</v>
+        <v>44357</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,20 +10797,20 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K145" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L145" t="n">
         <v>14000</v>
       </c>
-      <c r="L145" t="n">
-        <v>15000</v>
-      </c>
       <c r="M145" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="Q145" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44363</v>
+        <v>44357</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L146" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M146" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q146" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44363</v>
+        <v>44357</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10932,25 +10932,25 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M147" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="Q147" t="n">
         <v>40</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K148" t="n">
         <v>13000</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44356</v>
+        <v>44328</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K149" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L149" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M149" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>483</v>
+        <v>230</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44356</v>
+        <v>44328</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K150" t="n">
         <v>12000</v>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44356</v>
+        <v>44314</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,20 +11229,20 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K151" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L151" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>338</v>
+        <v>195</v>
       </c>
       <c r="Q151" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44461</v>
+        <v>44314</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,20 +11301,20 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K152" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L152" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>150</v>
+        <v>417</v>
       </c>
       <c r="Q152" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44461</v>
+        <v>44314</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K153" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L153" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M153" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q153" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,20 +11445,20 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K154" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L154" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="Q154" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K155" t="n">
         <v>13000</v>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="Q155" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11585,24 +11585,24 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M156" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q156" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11652,25 +11652,25 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
         <v>500</v>
       </c>
       <c r="K157" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L157" t="n">
         <v>12000</v>
       </c>
-      <c r="L157" t="n">
-        <v>13000</v>
-      </c>
       <c r="M157" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Q157" t="n">
         <v>40</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11724,43 +11724,187 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K158" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L158" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M158" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>50</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L159" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M159" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>30</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J158" t="n">
-        <v>500</v>
-      </c>
-      <c r="K158" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L158" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M158" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N158" t="inlineStr">
+      <c r="J160" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K160" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L160" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M160" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N160" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P158" t="n">
-        <v>338</v>
-      </c>
-      <c r="Q158" t="n">
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q160" t="n">
         <v>40</v>
       </c>
-      <c r="R158" t="inlineStr">
+      <c r="R160" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K136" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L136" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q136" t="n">
         <v>50</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K137" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L137" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M137" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="Q137" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K138" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L138" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M138" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K139" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L139" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M139" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q139" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10433,24 +10433,24 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L140" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M140" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K141" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>483</v>
+        <v>317</v>
       </c>
       <c r="Q141" t="n">
         <v>30</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,24 +10577,24 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K142" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q142" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K143" t="n">
         <v>14000</v>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="Q143" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K144" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K145" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L145" t="n">
         <v>13000</v>
       </c>
-      <c r="L145" t="n">
-        <v>14000</v>
-      </c>
       <c r="M145" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K146" t="n">
         <v>14000</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>500</v>
       </c>
       <c r="K147" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L147" t="n">
         <v>12000</v>
       </c>
-      <c r="L147" t="n">
-        <v>13000</v>
-      </c>
       <c r="M147" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K148" t="n">
         <v>13000</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q148" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K149" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L149" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M149" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>230</v>
+        <v>483</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K150" t="n">
         <v>12000</v>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,20 +11229,20 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K151" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L151" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M151" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11304,17 +11304,17 @@
         <v>700</v>
       </c>
       <c r="K152" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L152" t="n">
         <v>12000</v>
       </c>
-      <c r="L152" t="n">
-        <v>13000</v>
-      </c>
       <c r="M152" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11369,24 +11369,24 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K153" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L153" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M153" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q153" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K154" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L154" t="n">
         <v>10000</v>
       </c>
-      <c r="L154" t="n">
-        <v>12000</v>
-      </c>
       <c r="M154" t="n">
-        <v>11000</v>
+        <v>9750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="Q154" t="n">
         <v>50</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K155" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L155" t="n">
         <v>13000</v>
       </c>
-      <c r="L155" t="n">
-        <v>14000</v>
-      </c>
       <c r="M155" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q155" t="n">
         <v>30</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K156" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L156" t="n">
         <v>11000</v>
       </c>
-      <c r="L156" t="n">
-        <v>12000</v>
-      </c>
       <c r="M156" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q156" t="n">
         <v>40</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K157" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L157" t="n">
         <v>12000</v>
       </c>
       <c r="M157" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q157" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,20 +11733,20 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K158" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L158" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M158" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q158" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K159" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L159" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M159" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q159" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K160" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L160" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M160" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,12 +11899,228 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="Q160" t="n">
         <v>40</v>
       </c>
       <c r="R160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K161" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L161" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M161" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>50</v>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K162" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M162" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>30</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K163" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L163" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M163" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>40</v>
+      </c>
+      <c r="R163" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K50" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L50" t="n">
         <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K51" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L51" t="n">
         <v>6000</v>
       </c>
       <c r="M51" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Q51" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4101,20 +4101,20 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K52" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L52" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M52" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K53" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L53" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M53" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q53" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L54" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M54" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K55" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L55" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M55" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4380,16 +4380,16 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K56" t="n">
         <v>11000</v>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K57" t="n">
         <v>13000</v>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K58" t="n">
         <v>11000</v>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="Q59" t="n">
         <v>40</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,20 +4677,20 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K60" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L60" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M60" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,24 +4745,24 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L61" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M61" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
         <v>1000</v>
       </c>
       <c r="K62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L62" t="n">
         <v>10000</v>
       </c>
-      <c r="L62" t="n">
-        <v>11000</v>
-      </c>
       <c r="M62" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q62" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K63" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L63" t="n">
         <v>13000</v>
       </c>
-      <c r="L63" t="n">
-        <v>14000</v>
-      </c>
       <c r="M63" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q63" t="n">
         <v>30</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K64" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L64" t="n">
         <v>11000</v>
       </c>
-      <c r="L64" t="n">
-        <v>12000</v>
-      </c>
       <c r="M64" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q64" t="n">
         <v>40</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K65" t="n">
         <v>13000</v>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5105,24 +5105,24 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K66" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M66" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q66" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5172,29 +5172,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L67" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M67" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q67" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K68" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L68" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M68" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,24 +5321,24 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L69" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M69" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K70" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L70" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M70" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q70" t="n">
         <v>40</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,20 +5469,20 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K71" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L71" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M71" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q71" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K72" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L72" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M72" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K73" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L73" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M73" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M74" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K75" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L75" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M75" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q75" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1800</v>
+        <v>540</v>
       </c>
       <c r="K76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L76" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M76" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q76" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K78" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L78" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M78" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K79" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L79" t="n">
         <v>10000</v>
       </c>
-      <c r="L79" t="n">
-        <v>11000</v>
-      </c>
       <c r="M79" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q79" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6120,17 +6120,17 @@
         <v>800</v>
       </c>
       <c r="K80" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L80" t="n">
         <v>8000</v>
       </c>
-      <c r="L80" t="n">
-        <v>9000</v>
-      </c>
       <c r="M80" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q80" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K81" t="n">
         <v>10000</v>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,16 +6252,16 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K82" t="n">
         <v>8000</v>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="Q82" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K83" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L83" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M83" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="Q83" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K84" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L84" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M84" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="Q84" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K85" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L85" t="n">
         <v>7000</v>
       </c>
-      <c r="L85" t="n">
-        <v>8000</v>
-      </c>
       <c r="M85" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="Q85" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6552,17 +6552,17 @@
         <v>800</v>
       </c>
       <c r="K86" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M86" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="Q86" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,29 +6612,29 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L87" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M87" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q87" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K88" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L88" t="n">
         <v>10000</v>
       </c>
-      <c r="L88" t="n">
-        <v>11000</v>
-      </c>
       <c r="M88" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="Q88" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K89" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L89" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M89" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K90" t="n">
         <v>10000</v>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q90" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,29 +6900,29 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K91" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M91" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q91" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K92" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M92" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Q92" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,20 +7053,20 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K93" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L93" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M93" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q93" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7121,24 +7121,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K94" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L94" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M94" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Q94" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K95" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L95" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M95" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="Q95" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K96" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L96" t="n">
         <v>10000</v>
       </c>
-      <c r="L96" t="n">
-        <v>11000</v>
-      </c>
       <c r="M96" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q96" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K97" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L97" t="n">
         <v>8000</v>
       </c>
-      <c r="L97" t="n">
-        <v>9000</v>
-      </c>
       <c r="M97" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q97" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K98" t="n">
         <v>10000</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q98" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K99" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L99" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M99" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q99" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K100" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L100" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M100" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q100" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K101" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L101" t="n">
         <v>12000</v>
       </c>
       <c r="M101" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K102" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L102" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M102" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q102" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,16 +7764,16 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K103" t="n">
         <v>11000</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q103" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K104" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L104" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M104" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7908,12 +7908,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K106" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L106" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M106" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K107" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L107" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="Q107" t="n">
         <v>40</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K108" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="Q108" t="n">
         <v>30</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K109" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L109" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M109" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q109" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K110" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L110" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M110" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q110" t="n">
         <v>30</v>
@@ -8340,29 +8340,29 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K111" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L111" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M111" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,20 +8421,20 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K112" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M112" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q112" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L113" t="n">
         <v>12000</v>
       </c>
-      <c r="L113" t="n">
-        <v>13000</v>
-      </c>
       <c r="M113" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M114" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K115" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L115" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M115" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L116" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M116" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K117" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L117" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M117" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,20 +8853,20 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K118" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L118" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M118" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,20 +8925,20 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K119" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L119" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M119" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K120" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M120" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q120" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K121" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L121" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M121" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="Q121" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K122" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L122" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="Q122" t="n">
         <v>50</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,29 +9204,29 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K123" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M123" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="Q123" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K124" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L124" t="n">
         <v>10000</v>
       </c>
-      <c r="L124" t="n">
-        <v>11000</v>
-      </c>
       <c r="M124" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q124" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9360,17 +9360,17 @@
         <v>1700</v>
       </c>
       <c r="K125" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L125" t="n">
         <v>8000</v>
       </c>
-      <c r="L125" t="n">
-        <v>9000</v>
-      </c>
       <c r="M125" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q125" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1100</v>
+        <v>3400</v>
       </c>
       <c r="K126" t="n">
         <v>10000</v>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q126" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K127" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L127" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M127" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,20 +9573,20 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K128" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L129" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M129" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,29 +9708,29 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K130" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L130" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="Q130" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K131" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L131" t="n">
         <v>10000</v>
       </c>
-      <c r="L131" t="n">
-        <v>11000</v>
-      </c>
       <c r="M131" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q131" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K132" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L132" t="n">
         <v>8000</v>
       </c>
-      <c r="L132" t="n">
-        <v>9000</v>
-      </c>
       <c r="M132" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q132" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K133" t="n">
         <v>10000</v>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q133" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,24 +10001,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K134" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L134" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M134" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10068,25 +10068,25 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L135" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M135" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q135" t="n">
         <v>40</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,20 +10149,20 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K136" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L136" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M136" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,11 +10217,11 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K137" t="n">
         <v>9000</v>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K138" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L138" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M138" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q138" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10368,17 +10368,17 @@
         <v>1000</v>
       </c>
       <c r="K139" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L139" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K140" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L140" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M140" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="Q140" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K141" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M141" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q141" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M142" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K144" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L144" t="n">
         <v>14000</v>
       </c>
-      <c r="L144" t="n">
-        <v>15000</v>
-      </c>
       <c r="M144" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K145" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L145" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M145" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q145" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K146" t="n">
         <v>14000</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q146" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L147" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M147" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L148" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M148" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K149" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L149" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M149" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q149" t="n">
         <v>30</v>
@@ -11148,29 +11148,29 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K150" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M150" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,20 +11229,20 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K151" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L151" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M151" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q151" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K152" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L152" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q152" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,20 +11373,20 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M153" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q153" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K154" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L154" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M154" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="Q154" t="n">
         <v>50</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11580,29 +11580,29 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
         <v>600</v>
       </c>
       <c r="K156" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L156" t="n">
         <v>10000</v>
       </c>
-      <c r="L156" t="n">
-        <v>11000</v>
-      </c>
       <c r="M156" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="Q156" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L157" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="Q157" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11729,24 +11729,24 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K158" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L158" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M158" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q158" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11796,29 +11796,29 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K159" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L159" t="n">
         <v>12000</v>
       </c>
       <c r="M159" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q159" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,20 +11877,20 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K160" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M160" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q160" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11940,29 +11940,29 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L161" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="Q161" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L162" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M162" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q162" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12084,43 +12084,187 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K163" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L163" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M163" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>50</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K164" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M164" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>30</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J163" t="n">
+      <c r="J165" t="n">
         <v>1200</v>
       </c>
-      <c r="K163" t="n">
+      <c r="K165" t="n">
         <v>6000</v>
       </c>
-      <c r="L163" t="n">
+      <c r="L165" t="n">
         <v>7000</v>
       </c>
-      <c r="M163" t="n">
+      <c r="M165" t="n">
         <v>6500</v>
       </c>
-      <c r="N163" t="inlineStr">
+      <c r="N165" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P163" t="n">
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
         <v>162</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="Q165" t="n">
         <v>40</v>
       </c>
-      <c r="R163" t="inlineStr">
+      <c r="R165" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K60" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L60" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M60" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="Q60" t="n">
         <v>30</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K61" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L61" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M61" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="Q61" t="n">
         <v>40</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K62" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L62" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M62" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,24 +4889,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K63" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L63" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M63" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4956,29 +4956,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
         <v>1000</v>
       </c>
       <c r="K64" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L64" t="n">
         <v>10000</v>
       </c>
-      <c r="L64" t="n">
-        <v>11000</v>
-      </c>
       <c r="M64" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K65" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L65" t="n">
         <v>13000</v>
       </c>
-      <c r="L65" t="n">
-        <v>14000</v>
-      </c>
       <c r="M65" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q65" t="n">
         <v>30</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K66" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L66" t="n">
         <v>11000</v>
       </c>
-      <c r="L66" t="n">
-        <v>12000</v>
-      </c>
       <c r="M66" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q66" t="n">
         <v>40</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K67" t="n">
         <v>13000</v>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="Q67" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,24 +5249,24 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K68" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L68" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M68" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q68" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K69" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L69" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M69" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q69" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L70" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M70" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5465,24 +5465,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K71" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L71" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M71" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K72" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L72" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M72" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="Q72" t="n">
         <v>40</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K73" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L73" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M73" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,20 +5685,20 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K74" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M74" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K75" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L75" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M75" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q75" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M76" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K77" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L77" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M77" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q77" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1800</v>
+        <v>540</v>
       </c>
       <c r="K78" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M78" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K80" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L80" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M80" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K81" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L81" t="n">
         <v>10000</v>
       </c>
-      <c r="L81" t="n">
-        <v>11000</v>
-      </c>
       <c r="M81" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q81" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6264,17 +6264,17 @@
         <v>800</v>
       </c>
       <c r="K82" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L82" t="n">
         <v>8000</v>
       </c>
-      <c r="L82" t="n">
-        <v>9000</v>
-      </c>
       <c r="M82" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q82" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K83" t="n">
         <v>10000</v>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q83" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,16 +6396,16 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K84" t="n">
         <v>8000</v>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="Q84" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,29 +6468,29 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K85" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L85" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M85" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="Q85" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K86" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L86" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M86" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="Q86" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K87" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L87" t="n">
         <v>7000</v>
       </c>
-      <c r="L87" t="n">
-        <v>8000</v>
-      </c>
       <c r="M87" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="Q87" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6696,17 +6696,17 @@
         <v>800</v>
       </c>
       <c r="K88" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M88" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="Q88" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K89" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L89" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M89" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K90" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L90" t="n">
         <v>10000</v>
       </c>
-      <c r="L90" t="n">
-        <v>11000</v>
-      </c>
       <c r="M90" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="Q90" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6900,29 +6900,29 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L91" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M91" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K92" t="n">
         <v>10000</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q92" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,29 +7044,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K93" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L93" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M93" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q93" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Q94" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K95" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L95" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M95" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7265,24 +7265,24 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K96" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L96" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M96" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Q96" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K97" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L97" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M97" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="Q97" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L98" t="n">
         <v>10000</v>
       </c>
-      <c r="L98" t="n">
-        <v>11000</v>
-      </c>
       <c r="M98" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q98" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K99" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L99" t="n">
         <v>8000</v>
       </c>
-      <c r="L99" t="n">
-        <v>9000</v>
-      </c>
       <c r="M99" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q99" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K100" t="n">
         <v>10000</v>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q100" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K101" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L101" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M101" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q101" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K102" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L102" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M102" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q102" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7764,29 +7764,29 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K103" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L103" t="n">
         <v>12000</v>
       </c>
       <c r="M103" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,20 +7845,20 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K104" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L104" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M104" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q104" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,16 +7908,16 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K105" t="n">
         <v>11000</v>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q105" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K106" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L106" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M106" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="Q107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K108" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L108" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M108" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q108" t="n">
         <v>30</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L109" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M109" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="Q109" t="n">
         <v>40</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44300</v>
+        <v>44475</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K110" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M110" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="Q110" t="n">
         <v>30</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K111" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L111" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M111" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q111" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K112" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q112" t="n">
         <v>30</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K113" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L113" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M113" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K114" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L114" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M114" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q114" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K115" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L115" t="n">
         <v>12000</v>
       </c>
-      <c r="L115" t="n">
-        <v>13000</v>
-      </c>
       <c r="M115" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="Q115" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L116" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M116" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K117" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L117" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M117" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,20 +8853,20 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q118" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K119" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L119" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M119" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q119" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K120" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L120" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M120" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K121" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L121" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,20 +9141,20 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K122" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L122" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M122" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,20 +9213,20 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K123" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L123" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M123" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K124" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L124" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="Q124" t="n">
         <v>50</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K125" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L125" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M125" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="Q125" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="K126" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L126" t="n">
         <v>10000</v>
       </c>
-      <c r="L126" t="n">
-        <v>11000</v>
-      </c>
       <c r="M126" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q126" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9504,17 +9504,17 @@
         <v>1700</v>
       </c>
       <c r="K127" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L127" t="n">
         <v>8000</v>
       </c>
-      <c r="L127" t="n">
-        <v>9000</v>
-      </c>
       <c r="M127" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q127" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1100</v>
+        <v>3400</v>
       </c>
       <c r="K128" t="n">
         <v>10000</v>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q128" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,29 +9636,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K129" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L129" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M129" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="Q129" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K130" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L130" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M130" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K131" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L131" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M131" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="Q131" t="n">
         <v>50</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K132" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L132" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M132" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>107</v>
+        <v>450</v>
       </c>
       <c r="Q132" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,20 +9933,20 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K133" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L133" t="n">
         <v>10000</v>
       </c>
-      <c r="L133" t="n">
-        <v>11000</v>
-      </c>
       <c r="M133" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q133" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K134" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L134" t="n">
         <v>8000</v>
       </c>
-      <c r="L134" t="n">
-        <v>9000</v>
-      </c>
       <c r="M134" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q134" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K135" t="n">
         <v>10000</v>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q135" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K136" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L136" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M136" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>383</v>
+        <v>212</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K137" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M137" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q137" t="n">
         <v>40</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K138" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L138" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M138" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>190</v>
+        <v>383</v>
       </c>
       <c r="Q138" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,11 +10361,11 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K139" t="n">
         <v>9000</v>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="Q139" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K140" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L140" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M140" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q140" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10512,17 +10512,17 @@
         <v>1000</v>
       </c>
       <c r="K141" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L141" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="Q141" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K142" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L142" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M142" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="Q142" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K143" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M143" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q143" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K144" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L144" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M144" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Q144" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,20 +10797,20 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K145" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L145" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M145" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K146" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L146" t="n">
         <v>14000</v>
       </c>
-      <c r="L146" t="n">
-        <v>15000</v>
-      </c>
       <c r="M146" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q146" t="n">
         <v>30</v>
@@ -10932,29 +10932,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K147" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M147" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K148" t="n">
         <v>14000</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q148" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11081,24 +11081,24 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
         <v>500</v>
       </c>
       <c r="K149" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L149" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L150" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M150" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="Q150" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K151" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L151" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M151" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q151" t="n">
         <v>30</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M152" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="Q152" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,20 +11373,20 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L153" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M153" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="Q153" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11436,29 +11436,29 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K154" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M154" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="Q154" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,20 +11517,20 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K155" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L155" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M155" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q155" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K156" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M156" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="Q156" t="n">
         <v>50</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11724,29 +11724,29 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
         <v>600</v>
       </c>
       <c r="K158" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L158" t="n">
         <v>10000</v>
       </c>
-      <c r="L158" t="n">
-        <v>11000</v>
-      </c>
       <c r="M158" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="Q158" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K159" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L159" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M159" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="Q159" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K160" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L160" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M160" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11940,29 +11940,29 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K161" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L161" t="n">
         <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q161" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K162" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M162" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q162" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12084,29 +12084,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L163" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M163" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="Q163" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,20 +12165,20 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K164" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L164" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M164" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q164" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12228,43 +12228,187 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K165" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L165" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M165" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>50</v>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K166" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L166" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M166" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>30</v>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
           <t>Madrigal</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J165" t="n">
+      <c r="J167" t="n">
         <v>1200</v>
       </c>
-      <c r="K165" t="n">
+      <c r="K167" t="n">
         <v>6000</v>
       </c>
-      <c r="L165" t="n">
+      <c r="L167" t="n">
         <v>7000</v>
       </c>
-      <c r="M165" t="n">
+      <c r="M167" t="n">
         <v>6500</v>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="N167" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P165" t="n">
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
         <v>162</v>
       </c>
-      <c r="Q165" t="n">
+      <c r="Q167" t="n">
         <v>40</v>
       </c>
-      <c r="R165" t="inlineStr">
+      <c r="R167" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K103" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L103" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M103" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K104" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L104" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M104" t="n">
-        <v>13500</v>
+        <v>4500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q104" t="n">
         <v>30</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K105" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L105" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M105" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="Q105" t="n">
         <v>40</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K106" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L106" t="n">
         <v>12000</v>
       </c>
       <c r="M106" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K107" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="Q107" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8129,24 +8129,24 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K108" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L108" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q108" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,16 +8196,16 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K109" t="n">
         <v>11000</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K110" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L110" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M110" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="Q110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K111" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M111" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>188</v>
+        <v>450</v>
       </c>
       <c r="Q111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44300</v>
+        <v>44335</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8417,11 +8417,11 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K112" t="n">
         <v>11000</v>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q112" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K113" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L113" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M113" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M114" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,11 +8633,11 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
         <v>11000</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q115" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L116" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M116" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K117" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M117" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8849,24 +8849,24 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K118" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M118" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,16 +8916,16 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K119" t="n">
         <v>11000</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K120" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L120" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M120" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K121" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L121" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M121" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q121" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9137,24 +9137,24 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K122" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L122" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M122" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K123" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L123" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M123" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q123" t="n">
         <v>40</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K124" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M124" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q124" t="n">
         <v>50</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K125" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L125" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M125" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44435</v>
+        <v>44448</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K126" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L126" t="n">
         <v>9000</v>
       </c>
-      <c r="L126" t="n">
-        <v>10000</v>
-      </c>
       <c r="M126" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q126" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9497,24 +9497,24 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K127" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L127" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M127" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="Q127" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K128" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M128" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9636,29 +9636,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="K129" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q129" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9708,29 +9708,29 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K130" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L130" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M130" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q130" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K131" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L131" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9857,24 +9857,24 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K132" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L132" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M132" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,20 +9933,20 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K133" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L133" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M133" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -10001,24 +10001,24 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K134" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M134" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="Q134" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K135" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L135" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M135" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q135" t="n">
         <v>30</v>
@@ -10140,29 +10140,29 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K136" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q136" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K137" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L137" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M137" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q137" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K138" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L138" t="n">
         <v>11000</v>
       </c>
-      <c r="L138" t="n">
-        <v>12000</v>
-      </c>
       <c r="M138" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q138" t="n">
         <v>30</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K139" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L139" t="n">
         <v>9000</v>
       </c>
-      <c r="L139" t="n">
-        <v>10000</v>
-      </c>
       <c r="M139" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="Q139" t="n">
         <v>40</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K140" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L140" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M140" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K141" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M141" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="Q141" t="n">
         <v>30</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L142" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M142" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="Q142" t="n">
         <v>40</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K143" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L143" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q143" t="n">
         <v>50</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K144" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L144" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M144" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="Q144" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,20 +10797,20 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K145" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L145" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M145" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="Q145" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,20 +10869,20 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K146" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L146" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M146" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10937,24 +10937,24 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K147" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M147" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="Q147" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K148" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L148" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M148" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>483</v>
+        <v>317</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11081,24 +11081,24 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K149" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L149" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q149" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K150" t="n">
         <v>14000</v>
@@ -11170,7 +11170,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="Q150" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K151" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L151" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M151" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="Q151" t="n">
         <v>30</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K152" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L152" t="n">
         <v>13000</v>
       </c>
-      <c r="L152" t="n">
-        <v>14000</v>
-      </c>
       <c r="M152" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q152" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K153" t="n">
         <v>14000</v>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="Q153" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11441,24 +11441,24 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
         <v>500</v>
       </c>
       <c r="K154" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L154" t="n">
         <v>12000</v>
       </c>
-      <c r="L154" t="n">
-        <v>13000</v>
-      </c>
       <c r="M154" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q154" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K155" t="n">
         <v>13000</v>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q155" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,20 +11589,20 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K156" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>230</v>
+        <v>483</v>
       </c>
       <c r="Q156" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11657,11 +11657,11 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K157" t="n">
         <v>12000</v>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,20 +11733,20 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K158" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L158" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M158" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="Q158" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11808,17 +11808,17 @@
         <v>700</v>
       </c>
       <c r="K159" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L159" t="n">
         <v>12000</v>
       </c>
-      <c r="L159" t="n">
-        <v>13000</v>
-      </c>
       <c r="M159" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="Q159" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11873,24 +11873,24 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L160" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M160" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q160" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K161" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L161" t="n">
         <v>10000</v>
       </c>
-      <c r="L161" t="n">
-        <v>12000</v>
-      </c>
       <c r="M161" t="n">
-        <v>11000</v>
+        <v>9750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K162" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L162" t="n">
         <v>13000</v>
       </c>
-      <c r="L162" t="n">
-        <v>14000</v>
-      </c>
       <c r="M162" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K163" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L163" t="n">
         <v>11000</v>
       </c>
-      <c r="L163" t="n">
-        <v>12000</v>
-      </c>
       <c r="M163" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q163" t="n">
         <v>40</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,20 +12165,20 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K164" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L164" t="n">
         <v>12000</v>
       </c>
       <c r="M164" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q164" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K165" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L165" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M165" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q165" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L166" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q166" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K167" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L167" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M167" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,12 +12403,228 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="Q167" t="n">
         <v>40</v>
       </c>
       <c r="R167" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K168" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L168" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M168" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>50</v>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K169" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L169" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M169" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>30</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K170" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L170" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M170" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>40</v>
+      </c>
+      <c r="R170" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44490</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K10" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M10" t="n">
-        <v>11000</v>
+        <v>5250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>367</v>
+        <v>105</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44490</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K11" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L11" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M11" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44398</v>
+        <v>44490</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>1200</v>
       </c>
       <c r="K12" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="n">
         <v>40</v>
@@ -1284,29 +1284,29 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K13" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L13" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>180</v>
+        <v>367</v>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L14" t="n">
         <v>9000</v>
       </c>
-      <c r="L14" t="n">
-        <v>10000</v>
-      </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44441</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K16" t="n">
         <v>8000</v>
       </c>
       <c r="L16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M16" t="n">
         <v>9000</v>
       </c>
-      <c r="M16" t="n">
-        <v>8500</v>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L17" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M17" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L18" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M18" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L19" t="n">
         <v>9000</v>
       </c>
-      <c r="L19" t="n">
-        <v>10000</v>
-      </c>
       <c r="M19" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="Q19" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="K20" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L20" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M20" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K21" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L21" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M21" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,29 +1932,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K22" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L22" t="n">
         <v>10000</v>
       </c>
-      <c r="L22" t="n">
-        <v>11000</v>
-      </c>
       <c r="M22" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K23" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M23" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,12 +2076,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -2091,14 +2091,14 @@
         <v>8000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="Q24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,29 +2148,29 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K25" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L25" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M25" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Q25" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44462</v>
+        <v>44420</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="K26" t="n">
         <v>8000</v>
       </c>
       <c r="L26" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M26" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,20 +2301,20 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K27" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L27" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2369,24 +2369,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L28" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M28" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M29" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44371</v>
+        <v>44462</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,25 +2508,25 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K30" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M30" t="n">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="Q30" t="n">
         <v>40</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K31" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="n">
         <v>50</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K32" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="Q32" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2729,24 +2729,24 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L33" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
         <v>10000</v>
       </c>
       <c r="L34" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M34" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="Q34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K35" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L35" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M35" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>367</v>
+        <v>121</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2945,24 +2945,24 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>700</v>
       </c>
       <c r="K36" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L36" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M36" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="Q36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,17 +3021,17 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K37" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M37" t="n">
         <v>11000</v>
       </c>
-      <c r="L37" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>12000</v>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>$/caja 40 unidades</t>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q37" t="n">
         <v>40</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K38" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L38" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M38" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>180</v>
+        <v>367</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,29 +3156,29 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L40" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M40" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K41" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L41" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M41" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K42" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="Q42" t="n">
         <v>50</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3444,29 +3444,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>800</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="Q43" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3521,24 +3521,24 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L44" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3588,29 +3588,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K45" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M45" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3660,29 +3660,29 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>800</v>
       </c>
       <c r="K46" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="Q46" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K47" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M47" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3809,24 +3809,24 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L48" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M48" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,25 +3876,25 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="Q49" t="n">
         <v>40</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44482</v>
+        <v>44370</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,20 +3957,20 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K50" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L50" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M50" t="n">
-        <v>7750</v>
+        <v>15500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44482</v>
+        <v>44370</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,20 +4029,20 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K51" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>5750</v>
+        <v>14500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="Q51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44412</v>
+        <v>44370</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,29 +4092,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K52" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L52" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M52" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K53" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L53" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M53" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="Q53" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L54" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M54" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>317</v>
+        <v>144</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K55" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L55" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M55" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q55" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4385,24 +4385,24 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K56" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L56" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M56" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,25 +4524,25 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
         <v>700</v>
       </c>
       <c r="K58" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L58" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M58" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Q58" t="n">
         <v>40</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,20 +4605,20 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K59" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M59" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="Q59" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K60" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L60" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M60" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>258</v>
+        <v>450</v>
       </c>
       <c r="Q60" t="n">
         <v>30</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4740,25 +4740,25 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K61" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L61" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M61" t="n">
-        <v>5750</v>
+        <v>11500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="Q61" t="n">
         <v>40</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,20 +4821,20 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K62" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4889,24 +4889,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K63" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L63" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M63" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="Q63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44322</v>
+        <v>44483</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K64" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L64" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M64" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K65" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L65" t="n">
         <v>12000</v>
       </c>
-      <c r="L65" t="n">
-        <v>13000</v>
-      </c>
       <c r="M65" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="Q65" t="n">
         <v>30</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K66" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L66" t="n">
         <v>10000</v>
       </c>
-      <c r="L66" t="n">
-        <v>11000</v>
-      </c>
       <c r="M66" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q66" t="n">
         <v>40</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K67" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L67" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M67" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>450</v>
+        <v>190</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5249,24 +5249,24 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K68" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L68" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44343</v>
+        <v>44322</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K69" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L69" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M69" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5400,13 +5400,13 @@
         <v>600</v>
       </c>
       <c r="K70" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L70" t="n">
         <v>14000</v>
       </c>
-      <c r="L70" t="n">
-        <v>15000</v>
-      </c>
       <c r="M70" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="Q70" t="n">
         <v>30</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
         <v>11000</v>
       </c>
       <c r="L71" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M71" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q71" t="n">
         <v>40</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K72" t="n">
         <v>13000</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q72" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q73" t="n">
         <v>30</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K74" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L74" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q74" t="n">
         <v>40</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44356</v>
+        <v>44343</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K75" t="n">
         <v>13000</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="Q75" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L76" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M76" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q76" t="n">
         <v>30</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K77" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L77" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M77" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q77" t="n">
         <v>40</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="K78" t="n">
         <v>13000</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q78" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K79" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L79" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M79" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q79" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K80" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L80" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M80" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="Q80" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44427</v>
+        <v>44356</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="K81" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M81" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="Q81" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6257,24 +6257,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K82" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L82" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M82" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="Q82" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K83" t="n">
         <v>10000</v>
@@ -6396,29 +6396,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K84" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L84" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M84" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6468,29 +6468,29 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K85" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L85" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M85" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q85" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K86" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L86" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M86" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="Q86" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K87" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L87" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M87" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="Q87" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K88" t="n">
         <v>10000</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q88" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L89" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M89" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="Q89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6828,29 +6828,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K90" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L90" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M90" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="Q90" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K91" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L91" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M91" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="Q91" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6977,24 +6977,24 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M92" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,25 +7044,25 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
         <v>800</v>
       </c>
       <c r="K93" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L93" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M93" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q93" t="n">
         <v>40</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,20 +7125,20 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K94" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L94" t="n">
         <v>10000</v>
       </c>
-      <c r="L94" t="n">
-        <v>11000</v>
-      </c>
       <c r="M94" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K95" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L95" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M95" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q95" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K96" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L96" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M96" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="Q96" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,20 +7341,20 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K97" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L97" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M97" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="Q97" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K98" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L98" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M98" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="Q98" t="n">
         <v>50</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K99" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L99" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M99" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="Q99" t="n">
         <v>70</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K100" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L100" t="n">
         <v>10000</v>
       </c>
-      <c r="L100" t="n">
-        <v>11000</v>
-      </c>
       <c r="M100" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="Q100" t="n">
         <v>30</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K101" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L101" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M101" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7692,29 +7692,29 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K102" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L102" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M102" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q102" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44489</v>
+        <v>44434</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7776,17 +7776,17 @@
         <v>1600</v>
       </c>
       <c r="K103" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L103" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="Q103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44489</v>
+        <v>44434</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K104" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L104" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M104" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44489</v>
+        <v>44434</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K105" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L105" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M105" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="Q105" t="n">
         <v>40</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K106" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L106" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M106" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="Q106" t="n">
         <v>50</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K107" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M107" t="n">
-        <v>13500</v>
+        <v>4500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K108" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M108" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="Q108" t="n">
         <v>40</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K109" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L109" t="n">
         <v>12000</v>
       </c>
       <c r="M109" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K110" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M110" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K111" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L111" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M111" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q111" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,16 +8412,16 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K112" t="n">
         <v>11000</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K113" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L113" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M113" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="Q113" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K114" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L114" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M114" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>188</v>
+        <v>450</v>
       </c>
       <c r="Q114" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44300</v>
+        <v>44335</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8633,11 +8633,11 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K115" t="n">
         <v>11000</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q115" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K116" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L116" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M116" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="Q116" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K117" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L117" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M117" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="Q117" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8849,11 +8849,11 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K118" t="n">
         <v>11000</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q118" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,20 +8925,20 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K119" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L119" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M119" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K120" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q120" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9065,24 +9065,24 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K121" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L121" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M121" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q121" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,16 +9132,16 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K122" t="n">
         <v>11000</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,20 +9213,20 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K123" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M123" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q123" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K124" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L124" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9353,24 +9353,24 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K125" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L125" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M125" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K126" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L126" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M126" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q126" t="n">
         <v>40</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K127" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L127" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M127" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q127" t="n">
         <v>50</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K128" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44435</v>
+        <v>44448</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,20 +9645,20 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K129" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L129" t="n">
         <v>9000</v>
       </c>
-      <c r="L129" t="n">
-        <v>10000</v>
-      </c>
       <c r="M129" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q129" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9713,24 +9713,24 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K130" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L130" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="Q130" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K131" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L131" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M131" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="Q131" t="n">
         <v>30</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="K132" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L132" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M132" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q132" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K133" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L133" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M133" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q133" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M134" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K135" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L135" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M135" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,20 +10149,20 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K136" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L136" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M136" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K137" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L137" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="Q137" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K138" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L138" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q138" t="n">
         <v>30</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K139" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q139" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L140" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M140" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="Q140" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K141" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L141" t="n">
         <v>11000</v>
       </c>
-      <c r="L141" t="n">
-        <v>12000</v>
-      </c>
       <c r="M141" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q141" t="n">
         <v>30</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K142" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L142" t="n">
         <v>9000</v>
       </c>
-      <c r="L142" t="n">
-        <v>10000</v>
-      </c>
       <c r="M142" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="Q142" t="n">
         <v>40</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K143" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M143" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K144" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L144" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M144" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K145" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L145" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M145" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="Q145" t="n">
         <v>40</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K146" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L146" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q146" t="n">
         <v>50</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10932,29 +10932,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K147" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L147" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M147" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="Q147" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K148" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L148" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M148" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>317</v>
+        <v>188</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K149" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M149" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K150" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M150" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="Q150" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K151" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L151" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>483</v>
+        <v>317</v>
       </c>
       <c r="Q151" t="n">
         <v>30</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11297,24 +11297,24 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M152" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>312</v>
+        <v>450</v>
       </c>
       <c r="Q152" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K153" t="n">
         <v>14000</v>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="Q153" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K154" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L154" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M154" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>383</v>
+        <v>483</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11508,29 +11508,29 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K155" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L155" t="n">
         <v>13000</v>
       </c>
-      <c r="L155" t="n">
-        <v>14000</v>
-      </c>
       <c r="M155" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q155" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K156" t="n">
         <v>14000</v>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>483</v>
+        <v>362</v>
       </c>
       <c r="Q156" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11657,24 +11657,24 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
         <v>500</v>
       </c>
       <c r="K157" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L157" t="n">
         <v>12000</v>
       </c>
-      <c r="L157" t="n">
-        <v>13000</v>
-      </c>
       <c r="M157" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="Q157" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K158" t="n">
         <v>13000</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="Q158" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K159" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L159" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M159" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>230</v>
+        <v>483</v>
       </c>
       <c r="Q159" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11873,11 +11873,11 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K160" t="n">
         <v>12000</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K161" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L161" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M161" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>195</v>
+        <v>338</v>
       </c>
       <c r="Q161" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12024,17 +12024,17 @@
         <v>700</v>
       </c>
       <c r="K162" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L162" t="n">
         <v>12000</v>
       </c>
-      <c r="L162" t="n">
-        <v>13000</v>
-      </c>
       <c r="M162" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>417</v>
+        <v>230</v>
       </c>
       <c r="Q162" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L163" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M163" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="Q163" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K164" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L164" t="n">
         <v>10000</v>
       </c>
-      <c r="L164" t="n">
-        <v>12000</v>
-      </c>
       <c r="M164" t="n">
-        <v>11000</v>
+        <v>9750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="Q164" t="n">
         <v>50</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K165" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L165" t="n">
         <v>13000</v>
       </c>
-      <c r="L165" t="n">
-        <v>14000</v>
-      </c>
       <c r="M165" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q165" t="n">
         <v>30</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K166" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L166" t="n">
         <v>11000</v>
       </c>
-      <c r="L166" t="n">
-        <v>12000</v>
-      </c>
       <c r="M166" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q166" t="n">
         <v>40</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K167" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L167" t="n">
         <v>12000</v>
       </c>
       <c r="M167" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q167" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,20 +12453,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K168" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L168" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M168" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q168" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M169" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q169" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K170" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L170" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,12 +12619,228 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="Q170" t="n">
         <v>40</v>
       </c>
       <c r="R170" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K171" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L171" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M171" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>50</v>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K172" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L172" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M172" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>30</v>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K173" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L173" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M173" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>40</v>
+      </c>
+      <c r="R173" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K34" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L34" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M34" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K35" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L35" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M35" t="n">
-        <v>8500</v>
+        <v>3750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="Q35" t="n">
         <v>70</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L36" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M36" t="n">
-        <v>11000</v>
+        <v>4750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>367</v>
+        <v>158</v>
       </c>
       <c r="Q36" t="n">
         <v>30</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44405</v>
+        <v>44497</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K37" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L37" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M37" t="n">
-        <v>11000</v>
+        <v>4750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="Q37" t="n">
         <v>40</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
         <v>10000</v>
       </c>
       <c r="L38" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M38" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>367</v>
+        <v>210</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M40" t="n">
         <v>11000</v>
       </c>
-      <c r="L40" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>12000</v>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44399</v>
+        <v>44405</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3305,24 +3305,24 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K41" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L41" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M41" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,20 +3381,20 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M42" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3449,24 +3449,24 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M43" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44364</v>
+        <v>44399</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K44" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L44" t="n">
         <v>13000</v>
       </c>
       <c r="M44" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q44" t="n">
         <v>40</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44419</v>
+        <v>44399</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K45" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L45" t="n">
         <v>10000</v>
       </c>
-      <c r="L45" t="n">
-        <v>11000</v>
-      </c>
       <c r="M45" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,24 +3665,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K46" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="Q46" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K47" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M47" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44419</v>
+        <v>44364</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K48" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="Q48" t="n">
         <v>40</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,24 +3953,24 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K50" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L50" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M50" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M51" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q51" t="n">
         <v>30</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K52" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M52" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="Q52" t="n">
         <v>40</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44482</v>
+        <v>44419</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K53" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L53" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44482</v>
+        <v>44370</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4248,17 +4248,17 @@
         <v>1000</v>
       </c>
       <c r="K54" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L54" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M54" t="n">
-        <v>5750</v>
+        <v>15500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="Q54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44412</v>
+        <v>44370</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4317,20 +4317,20 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44412</v>
+        <v>44370</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4389,20 +4389,20 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K56" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L56" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M56" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="Q56" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4464,13 +4464,13 @@
         <v>1100</v>
       </c>
       <c r="K57" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L57" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M57" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44412</v>
+        <v>44482</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K58" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L58" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M58" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="Q58" t="n">
         <v>40</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K59" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L59" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M59" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q59" t="n">
         <v>50</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4668,29 +4668,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L60" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M60" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4745,24 +4745,24 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K61" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L61" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M61" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="Q61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L62" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M62" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="Q62" t="n">
         <v>40</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,20 +4893,20 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K63" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="L63" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M63" t="n">
-        <v>7750</v>
+        <v>11500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44483</v>
+        <v>44336</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,20 +4965,20 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K64" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M64" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="Q64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5033,11 +5033,11 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K65" t="n">
         <v>11000</v>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,25 +5100,25 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K66" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M66" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="Q66" t="n">
         <v>40</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44322</v>
+        <v>44483</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5184,17 +5184,17 @@
         <v>1000</v>
       </c>
       <c r="K67" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L67" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M67" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q67" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44322</v>
+        <v>44483</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K68" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L68" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M68" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>417</v>
+        <v>144</v>
       </c>
       <c r="Q68" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44322</v>
+        <v>44308</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5321,24 +5321,24 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K69" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L69" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M69" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="Q69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44315</v>
+        <v>44308</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5393,24 +5393,24 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L70" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M70" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44315</v>
+        <v>44322</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K71" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L71" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M71" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="Q71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44343</v>
+        <v>44322</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K72" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L72" t="n">
         <v>13000</v>
       </c>
-      <c r="L72" t="n">
-        <v>14000</v>
-      </c>
       <c r="M72" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>270</v>
+        <v>417</v>
       </c>
       <c r="Q72" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44343</v>
+        <v>44322</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5609,24 +5609,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M73" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5681,24 +5681,24 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44343</v>
+        <v>44315</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K75" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M75" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="Q75" t="n">
         <v>40</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K76" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L76" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M76" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L77" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M77" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>212</v>
+        <v>483</v>
       </c>
       <c r="Q77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44356</v>
+        <v>44343</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K78" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L78" t="n">
         <v>13000</v>
       </c>
-      <c r="L78" t="n">
-        <v>14000</v>
-      </c>
       <c r="M78" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44356</v>
+        <v>44343</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K79" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L79" t="n">
         <v>14000</v>
       </c>
-      <c r="L79" t="n">
-        <v>15000</v>
-      </c>
       <c r="M79" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>483</v>
+        <v>338</v>
       </c>
       <c r="Q79" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K80" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L80" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M80" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44356</v>
+        <v>44447</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>540</v>
+        <v>1200</v>
       </c>
       <c r="K81" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L81" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M81" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="Q81" t="n">
         <v>40</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K82" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L82" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M82" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="Q82" t="n">
         <v>50</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44454</v>
+        <v>44356</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K83" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M83" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44427</v>
+        <v>44356</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,29 +6396,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K84" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L84" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M84" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="Q84" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44427</v>
+        <v>44356</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,29 +6468,29 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>800</v>
+        <v>540</v>
       </c>
       <c r="K85" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L85" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M85" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="Q85" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K86" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L86" t="n">
         <v>10000</v>
       </c>
-      <c r="L86" t="n">
-        <v>11000</v>
-      </c>
       <c r="M86" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q86" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6617,24 +6617,24 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K87" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L87" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M87" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q87" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K88" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L88" t="n">
         <v>10000</v>
       </c>
-      <c r="L88" t="n">
-        <v>11000</v>
-      </c>
       <c r="M88" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6761,24 +6761,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K89" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L89" t="n">
         <v>8000</v>
       </c>
-      <c r="L89" t="n">
-        <v>9000</v>
-      </c>
       <c r="M89" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,29 +6828,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K90" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M90" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="Q90" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6905,24 +6905,24 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
         <v>800</v>
       </c>
       <c r="K91" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L91" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M91" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>350</v>
+        <v>212</v>
       </c>
       <c r="Q91" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K92" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M92" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="Q92" t="n">
         <v>40</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,20 +7053,20 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K93" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L93" t="n">
         <v>9000</v>
       </c>
-      <c r="L93" t="n">
-        <v>10000</v>
-      </c>
       <c r="M93" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="Q93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7121,24 +7121,24 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
         <v>1000</v>
       </c>
       <c r="K94" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L94" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M94" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="Q94" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
         <v>10000</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7272,13 +7272,13 @@
         <v>800</v>
       </c>
       <c r="K96" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L96" t="n">
         <v>8000</v>
       </c>
-      <c r="L96" t="n">
-        <v>9000</v>
-      </c>
       <c r="M96" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="Q96" t="n">
         <v>40</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K97" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L97" t="n">
         <v>10000</v>
       </c>
-      <c r="L97" t="n">
-        <v>11000</v>
-      </c>
       <c r="M97" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q97" t="n">
         <v>40</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K98" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L98" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M98" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="Q98" t="n">
         <v>50</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K99" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L99" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M99" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="Q99" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7553,24 +7553,24 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K100" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L100" t="n">
         <v>9000</v>
       </c>
-      <c r="L100" t="n">
-        <v>10000</v>
-      </c>
       <c r="M100" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="Q100" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K101" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L101" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M101" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q101" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7697,11 +7697,11 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K102" t="n">
         <v>7000</v>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="Q102" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,29 +7764,29 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K103" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M103" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44434</v>
+        <v>44469</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L104" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M104" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="Q104" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,20 +7917,20 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K105" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L105" t="n">
         <v>10000</v>
       </c>
-      <c r="L105" t="n">
-        <v>11000</v>
-      </c>
       <c r="M105" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44489</v>
+        <v>44434</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K106" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L106" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M106" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q106" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44489</v>
+        <v>44434</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L107" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M107" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44489</v>
+        <v>44434</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K108" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L108" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M108" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="Q108" t="n">
         <v>40</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44391</v>
+        <v>44434</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K109" t="n">
         <v>10000</v>
       </c>
       <c r="L109" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M109" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="Q109" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K110" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L110" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M110" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="Q110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K111" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L111" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M111" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="Q111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K112" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M112" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="Q112" t="n">
         <v>40</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K113" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L113" t="n">
         <v>12000</v>
       </c>
       <c r="M113" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q113" t="n">
         <v>50</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K115" t="n">
         <v>11000</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44475</v>
+        <v>44391</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K116" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L116" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M116" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K117" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L117" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M117" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="Q117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44300</v>
+        <v>44335</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K118" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="Q118" t="n">
         <v>30</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44349</v>
+        <v>44335</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8916,29 +8916,29 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K119" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L119" t="n">
         <v>12000</v>
       </c>
-      <c r="L119" t="n">
-        <v>13000</v>
-      </c>
       <c r="M119" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8947,10 +8947,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="Q119" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K120" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M120" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q120" t="n">
         <v>30</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44349</v>
+        <v>44475</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K121" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L121" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M121" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="Q121" t="n">
         <v>40</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K122" t="n">
         <v>11000</v>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q122" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K123" t="n">
         <v>12000</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K124" t="n">
         <v>13000</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K125" t="n">
         <v>11000</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K126" t="n">
         <v>11000</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K127" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L127" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M127" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q127" t="n">
         <v>50</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K128" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M128" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K129" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M129" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="Q129" t="n">
         <v>40</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44385</v>
+        <v>44350</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K130" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L130" t="n">
         <v>12000</v>
       </c>
-      <c r="L130" t="n">
-        <v>14000</v>
-      </c>
       <c r="M130" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Q130" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L131" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M131" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>433</v>
+        <v>190</v>
       </c>
       <c r="Q131" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44435</v>
+        <v>44448</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K132" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M132" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="Q132" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44435</v>
+        <v>44448</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K133" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L133" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M133" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="Q133" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K134" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L134" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44435</v>
+        <v>44385</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="K135" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L135" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M135" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>212</v>
+        <v>433</v>
       </c>
       <c r="Q135" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,20 +10149,20 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="K136" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L136" t="n">
         <v>10000</v>
       </c>
-      <c r="L136" t="n">
-        <v>11000</v>
-      </c>
       <c r="M136" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q136" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10217,24 +10217,24 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K137" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M137" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="Q137" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>600</v>
+        <v>3400</v>
       </c>
       <c r="K138" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L138" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q138" t="n">
         <v>30</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K139" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L139" t="n">
         <v>9000</v>
       </c>
-      <c r="L139" t="n">
-        <v>10000</v>
-      </c>
       <c r="M139" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K140" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L140" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M140" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="Q140" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K141" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L141" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M141" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="Q141" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10577,24 +10577,24 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K142" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L142" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="Q142" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K143" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L143" t="n">
         <v>10000</v>
       </c>
-      <c r="L143" t="n">
-        <v>11000</v>
-      </c>
       <c r="M143" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q143" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K144" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L144" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M144" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c r="Q144" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10793,24 +10793,24 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K145" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L145" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M145" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="Q145" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K146" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L146" t="n">
         <v>9000</v>
       </c>
-      <c r="L146" t="n">
-        <v>10000</v>
-      </c>
       <c r="M146" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q146" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44476</v>
+        <v>44433</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,20 +10941,20 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K147" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L147" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K148" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L148" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M148" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>188</v>
+        <v>383</v>
       </c>
       <c r="Q148" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44468</v>
+        <v>44307</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11076,29 +11076,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K149" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L149" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M149" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11153,24 +11153,24 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
         <v>1100</v>
       </c>
       <c r="K150" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L150" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M150" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="Q150" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="K151" t="n">
         <v>9000</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11304,17 +11304,17 @@
         <v>700</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L152" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M152" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11376,13 +11376,13 @@
         <v>1000</v>
       </c>
       <c r="K153" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L153" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M153" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11436,29 +11436,29 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K154" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L154" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M154" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Q154" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44363</v>
+        <v>44468</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11513,24 +11513,24 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K155" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L155" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M155" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q155" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,20 +11589,20 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K156" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L156" t="n">
         <v>14000</v>
       </c>
-      <c r="L156" t="n">
-        <v>15000</v>
-      </c>
       <c r="M156" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>362</v>
+        <v>450</v>
       </c>
       <c r="Q156" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K157" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L157" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M157" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,20 +11733,20 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K158" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M158" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -11755,10 +11755,10 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="Q158" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11801,24 +11801,24 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K159" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L159" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M159" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q159" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44357</v>
+        <v>44363</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11868,25 +11868,25 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>500</v>
       </c>
       <c r="K160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M160" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="Q160" t="n">
         <v>40</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11952,17 +11952,17 @@
         <v>500</v>
       </c>
       <c r="K161" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="Q161" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12024,13 +12024,13 @@
         <v>700</v>
       </c>
       <c r="K162" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M162" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q162" t="n">
         <v>50</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K163" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L163" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M163" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>417</v>
+        <v>483</v>
       </c>
       <c r="Q163" t="n">
         <v>30</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12156,29 +12156,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K164" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L164" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M164" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="Q164" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44314</v>
+        <v>44357</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K165" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L165" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M165" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>417</v>
+        <v>338</v>
       </c>
       <c r="Q165" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12300,29 +12300,29 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K166" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L166" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="Q166" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44392</v>
+        <v>44328</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L167" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M167" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="Q167" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,20 +12453,20 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K168" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M168" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="Q168" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K169" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L169" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M169" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="Q169" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12588,25 +12588,25 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K170" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L170" t="n">
         <v>11000</v>
       </c>
-      <c r="L170" t="n">
-        <v>12000</v>
-      </c>
       <c r="M170" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="Q170" t="n">
         <v>40</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12672,13 +12672,13 @@
         <v>1000</v>
       </c>
       <c r="K171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M171" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K172" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L172" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M172" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12804,25 +12804,25 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K173" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L173" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M173" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,12 +12835,300 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="Q173" t="n">
         <v>40</v>
       </c>
       <c r="R173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>500</v>
+      </c>
+      <c r="K174" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L174" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M174" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>288</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>40</v>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K175" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L175" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M175" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>50</v>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K176" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L176" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M176" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>30</v>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4</v>
+      </c>
+      <c r="F177" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Madrigal</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K177" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L177" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M177" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>$/caja 40 unidades</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>40</v>
+      </c>
+      <c r="R177" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44329</v>
+        <v>44497</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M2" t="n">
-        <v>11500</v>
+        <v>4750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="n">
         <v>50</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44329</v>
+        <v>44497</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -564,29 +564,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M3" t="n">
-        <v>13500</v>
+        <v>3750</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>450</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44497</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K4" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M4" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="Q4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44406</v>
+        <v>44497</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -708,29 +708,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L5" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M5" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="Q5" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44462</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L6" t="n">
         <v>10000</v>
       </c>
       <c r="M6" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44462</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M7" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44455</v>
+        <v>44462</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K8" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M8" t="n">
         <v>9000</v>
       </c>
-      <c r="M8" t="n">
-        <v>8000</v>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44455</v>
+        <v>44462</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M9" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="Q9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44490</v>
+        <v>44349</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K10" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="Q10" t="n">
         <v>50</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44490</v>
+        <v>44349</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K11" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q11" t="n">
         <v>30</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44490</v>
+        <v>44349</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L12" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="Q12" t="n">
         <v>40</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44398</v>
+        <v>44349</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K13" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L13" t="n">
         <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44398</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K14" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L14" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M14" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44398</v>
+        <v>44406</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K15" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L15" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M15" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="Q15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44406</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L16" t="n">
         <v>10000</v>
       </c>
       <c r="M16" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="Q16" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44441</v>
+        <v>44406</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K17" t="n">
         <v>9000</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44441</v>
+        <v>44419</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K18" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L18" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="Q18" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44441</v>
+        <v>44419</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,16 +1716,16 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K19" t="n">
         <v>8000</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="Q19" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44441</v>
+        <v>44419</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,20 +1797,20 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K20" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L20" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M20" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="Q20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K21" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L21" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M21" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -1932,29 +1932,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K22" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L22" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M22" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="Q22" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44420</v>
+        <v>44475</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="K23" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L23" t="n">
         <v>10000</v>
       </c>
-      <c r="L23" t="n">
-        <v>11000</v>
-      </c>
       <c r="M23" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44420</v>
+        <v>44475</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2076,25 +2076,25 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>1100</v>
       </c>
       <c r="K24" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L24" t="n">
         <v>8000</v>
       </c>
-      <c r="L24" t="n">
-        <v>9000</v>
-      </c>
       <c r="M24" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="Q24" t="n">
         <v>40</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44420</v>
+        <v>44363</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K25" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44420</v>
+        <v>44363</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K26" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L26" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>170</v>
+        <v>483</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44462</v>
+        <v>44363</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K27" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M27" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44462</v>
+        <v>44363</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K28" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L28" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="Q28" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44462</v>
+        <v>44391</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2445,20 +2445,20 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K29" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L29" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M29" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44462</v>
+        <v>44391</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K30" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>162</v>
+        <v>450</v>
       </c>
       <c r="Q30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44371</v>
+        <v>44391</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44371</v>
+        <v>44391</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M32" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44371</v>
+        <v>44364</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,29 +2724,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2808,17 +2808,17 @@
         <v>800</v>
       </c>
       <c r="K34" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L34" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>4750</v>
+        <v>14500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44497</v>
+        <v>44364</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,20 +2877,20 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K35" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L35" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>3750</v>
+        <v>12500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="Q35" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44497</v>
+        <v>44434</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K36" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L36" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M36" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44497</v>
+        <v>44434</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,29 +3012,29 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K37" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L37" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M37" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="Q37" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44405</v>
+        <v>44434</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K38" t="n">
         <v>10000</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44405</v>
+        <v>44434</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="Q39" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44405</v>
+        <v>44434</v>
       </c>
       <c r="E40" t="n">
         <v>4</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K40" t="n">
         <v>10000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M40" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,20 +3309,20 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K41" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L41" t="n">
         <v>10000</v>
       </c>
-      <c r="L41" t="n">
-        <v>12000</v>
-      </c>
       <c r="M41" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="Q41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44399</v>
+        <v>44441</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K42" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L42" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M42" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>367</v>
+        <v>107</v>
       </c>
       <c r="Q42" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44399</v>
+        <v>44441</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K43" t="n">
         <v>8000</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="Q43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44399</v>
+        <v>44441</v>
       </c>
       <c r="E44" t="n">
         <v>4</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K44" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L44" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M44" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q44" t="n">
         <v>40</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,25 +3588,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K45" t="n">
         <v>8000</v>
       </c>
       <c r="L45" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M45" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44364</v>
+        <v>44413</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3665,24 +3665,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K46" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M46" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44364</v>
+        <v>44413</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
@@ -3744,13 +3744,13 @@
         <v>800</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44364</v>
+        <v>44413</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M48" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="Q48" t="n">
         <v>40</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44419</v>
+        <v>44413</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>800</v>
       </c>
       <c r="K49" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L49" t="n">
         <v>10000</v>
       </c>
-      <c r="L49" t="n">
-        <v>11000</v>
-      </c>
       <c r="M49" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44419</v>
+        <v>44448</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3953,24 +3953,24 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K50" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L50" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M50" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="Q50" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44419</v>
+        <v>44448</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K51" t="n">
         <v>10000</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44419</v>
+        <v>44448</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -4092,16 +4092,16 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K52" t="n">
         <v>8000</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,20 +4173,20 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K53" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L53" t="n">
         <v>10000</v>
       </c>
-      <c r="L53" t="n">
-        <v>11000</v>
-      </c>
       <c r="M53" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q53" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44370</v>
+        <v>44426</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4245,20 +4245,20 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K54" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L54" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M54" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44370</v>
+        <v>44426</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -4313,24 +4313,24 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M55" t="n">
-        <v>14500</v>
+        <v>8500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44370</v>
+        <v>44426</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K56" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M56" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="Q56" t="n">
         <v>40</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44482</v>
+        <v>44322</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,20 +4461,20 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K57" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L57" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M57" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44482</v>
+        <v>44322</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,20 +4533,20 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K58" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L58" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M58" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="Q58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44412</v>
+        <v>44322</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
         <v>1000</v>
       </c>
       <c r="K59" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L59" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M59" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44412</v>
+        <v>44489</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K60" t="n">
         <v>5000</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="Q60" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44412</v>
+        <v>44489</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="K61" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L61" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M61" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44412</v>
+        <v>44489</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K62" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L62" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M62" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="Q62" t="n">
         <v>40</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44336</v>
+        <v>44461</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K63" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L63" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M63" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q63" t="n">
         <v>50</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44336</v>
+        <v>44461</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -4968,13 +4968,13 @@
         <v>1200</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L64" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M64" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q64" t="n">
         <v>30</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44336</v>
+        <v>44461</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K65" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L65" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M65" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="Q65" t="n">
         <v>40</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44336</v>
+        <v>44300</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,20 +5109,20 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L66" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M66" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="Q66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44483</v>
+        <v>44455</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K67" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L67" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M67" t="n">
         <v>8000</v>
       </c>
-      <c r="M67" t="n">
-        <v>7750</v>
-      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44483</v>
+        <v>44455</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K68" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L68" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M68" t="n">
-        <v>5750</v>
+        <v>9000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="Q68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L69" t="n">
         <v>11000</v>
       </c>
-      <c r="L69" t="n">
-        <v>12000</v>
-      </c>
       <c r="M69" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q69" t="n">
         <v>30</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
@@ -5388,25 +5388,25 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K70" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L70" t="n">
         <v>9000</v>
       </c>
-      <c r="L70" t="n">
-        <v>10000</v>
-      </c>
       <c r="M70" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="Q70" t="n">
         <v>40</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44322</v>
+        <v>44483</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5472,17 +5472,17 @@
         <v>1000</v>
       </c>
       <c r="K71" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L71" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M71" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="Q71" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44322</v>
+        <v>44483</v>
       </c>
       <c r="E72" t="n">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,20 +5541,20 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="K72" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L72" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M72" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>417</v>
+        <v>144</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44322</v>
+        <v>44435</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K73" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L73" t="n">
         <v>10000</v>
       </c>
-      <c r="L73" t="n">
-        <v>11000</v>
-      </c>
       <c r="M73" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44315</v>
+        <v>44435</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K74" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L74" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M74" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44315</v>
+        <v>44435</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
@@ -5753,24 +5753,24 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>500</v>
+        <v>3400</v>
       </c>
       <c r="K75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L75" t="n">
         <v>11000</v>
       </c>
-      <c r="L75" t="n">
-        <v>12000</v>
-      </c>
       <c r="M75" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K76" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L76" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M76" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44343</v>
+        <v>44435</v>
       </c>
       <c r="E77" t="n">
         <v>4</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K77" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L77" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M77" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q77" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K78" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L78" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M78" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="Q78" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44343</v>
+        <v>44427</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
@@ -6036,29 +6036,29 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K79" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M79" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>338</v>
+        <v>107</v>
       </c>
       <c r="Q79" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K80" t="n">
         <v>10000</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44447</v>
+        <v>44427</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -6180,16 +6180,16 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K81" t="n">
         <v>8000</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44356</v>
+        <v>44427</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,20 +6261,20 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K82" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L82" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M82" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q82" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44356</v>
+        <v>44468</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K83" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L83" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M83" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>483</v>
+        <v>150</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44356</v>
+        <v>44468</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,20 +6405,20 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K84" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L84" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M84" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Q84" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44356</v>
+        <v>44468</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>540</v>
+        <v>1300</v>
       </c>
       <c r="K85" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L85" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M85" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="Q85" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44454</v>
+        <v>44336</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="K86" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M86" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="Q86" t="n">
         <v>50</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44454</v>
+        <v>44336</v>
       </c>
       <c r="E87" t="n">
         <v>4</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K87" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L87" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M87" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44427</v>
+        <v>44336</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K88" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L88" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M88" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="Q88" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44427</v>
+        <v>44336</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>800</v>
       </c>
       <c r="K89" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L89" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="Q89" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E90" t="n">
         <v>4</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,20 +6837,20 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K90" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L90" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M90" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q90" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E91" t="n">
         <v>4</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K91" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L91" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M91" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="Q91" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44427</v>
+        <v>44420</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K92" t="n">
         <v>10000</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q92" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7044,16 +7044,16 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K93" t="n">
         <v>8000</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="Q93" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K94" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="Q94" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K95" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L95" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M95" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -7260,16 +7260,16 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K96" t="n">
         <v>7000</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
         <v>800</v>
       </c>
       <c r="K97" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L97" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M97" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Q97" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44426</v>
+        <v>44412</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K98" t="n">
         <v>9000</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44426</v>
+        <v>44412</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K99" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L99" t="n">
         <v>10000</v>
       </c>
-      <c r="L99" t="n">
-        <v>11000</v>
-      </c>
       <c r="M99" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E100" t="n">
         <v>4</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K100" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L100" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="Q100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K101" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L101" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M101" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="Q101" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44469</v>
+        <v>44335</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K102" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L102" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M102" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="Q102" t="n">
         <v>50</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44469</v>
+        <v>44335</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -7764,29 +7764,29 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K103" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L103" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M103" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Q103" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44469</v>
+        <v>44335</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K104" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L104" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M104" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44434</v>
+        <v>44405</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -7920,13 +7920,13 @@
         <v>1000</v>
       </c>
       <c r="K105" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L105" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M105" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q105" t="n">
         <v>50</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44434</v>
+        <v>44405</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L106" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M106" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="Q106" t="n">
         <v>70</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44434</v>
+        <v>44405</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8061,17 +8061,17 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K107" t="n">
         <v>10000</v>
       </c>
       <c r="L107" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M107" t="n">
         <v>11000</v>
       </c>
-      <c r="M107" t="n">
-        <v>10500</v>
-      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44434</v>
+        <v>44405</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>700</v>
       </c>
       <c r="K108" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L108" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="Q108" t="n">
         <v>40</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44434</v>
+        <v>44314</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8208,17 +8208,17 @@
         <v>600</v>
       </c>
       <c r="K109" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L109" t="n">
         <v>10000</v>
       </c>
-      <c r="L109" t="n">
-        <v>11000</v>
-      </c>
       <c r="M109" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="Q109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44489</v>
+        <v>44314</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K110" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L110" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M110" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44489</v>
+        <v>44314</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -8345,24 +8345,24 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K111" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L111" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M111" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="Q111" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44489</v>
+        <v>44350</v>
       </c>
       <c r="E112" t="n">
         <v>4</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,20 +8421,20 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K112" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L112" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M112" t="n">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="Q112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44391</v>
+        <v>44350</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K113" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L113" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M113" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44391</v>
+        <v>44350</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -8561,24 +8561,24 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M114" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44391</v>
+        <v>44350</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -8628,16 +8628,16 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K115" t="n">
         <v>11000</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L116" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M116" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="Q116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44335</v>
+        <v>44385</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K117" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L117" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M117" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>230</v>
+        <v>433</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44335</v>
+        <v>44308</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K118" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M118" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q118" t="n">
         <v>30</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44335</v>
+        <v>44308</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L119" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M119" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Q119" t="n">
         <v>40</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44475</v>
+        <v>44315</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K120" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="Q120" t="n">
         <v>30</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44475</v>
+        <v>44315</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -9060,25 +9060,25 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K121" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L121" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M121" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="Q121" t="n">
         <v>40</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44300</v>
+        <v>44398</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K122" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L122" t="n">
         <v>12000</v>
       </c>
       <c r="M122" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="Q122" t="n">
         <v>30</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E123" t="n">
         <v>4</v>
@@ -9204,29 +9204,29 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K123" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L123" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M123" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="Q123" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K124" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L124" t="n">
         <v>13000</v>
       </c>
-      <c r="L124" t="n">
-        <v>14000</v>
-      </c>
       <c r="M124" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q124" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,20 +9357,20 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K125" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L125" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M125" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="Q125" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44349</v>
+        <v>44371</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K126" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L126" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M126" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="Q126" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44350</v>
+        <v>44371</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K127" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L127" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M127" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44350</v>
+        <v>44371</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -9569,24 +9569,24 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K128" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L128" t="n">
         <v>13000</v>
       </c>
-      <c r="L128" t="n">
-        <v>14000</v>
-      </c>
       <c r="M128" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44350</v>
+        <v>44454</v>
       </c>
       <c r="E129" t="n">
         <v>4</v>
@@ -9636,29 +9636,29 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K129" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9667,10 +9667,10 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="Q129" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44350</v>
+        <v>44454</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,20 +9717,20 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L130" t="n">
         <v>11000</v>
       </c>
-      <c r="L130" t="n">
-        <v>12000</v>
-      </c>
       <c r="M130" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="Q130" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44448</v>
+        <v>44490</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K131" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L131" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M131" t="n">
-        <v>9500</v>
+        <v>5250</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="Q131" t="n">
         <v>50</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44448</v>
+        <v>44490</v>
       </c>
       <c r="E132" t="n">
         <v>4</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K132" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L132" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M132" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44448</v>
+        <v>44490</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K133" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L133" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M133" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="Q133" t="n">
         <v>40</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44385</v>
+        <v>44399</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K134" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L134" t="n">
         <v>12000</v>
       </c>
-      <c r="L134" t="n">
-        <v>14000</v>
-      </c>
       <c r="M134" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44385</v>
+        <v>44399</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
@@ -10073,24 +10073,24 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K135" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L135" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M135" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>433</v>
+        <v>212</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44435</v>
+        <v>44399</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,20 +10149,20 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K136" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M136" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44435</v>
+        <v>44399</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,20 +10221,20 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L137" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M137" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="Q137" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44435</v>
+        <v>44357</v>
       </c>
       <c r="E138" t="n">
         <v>4</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K138" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L138" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44435</v>
+        <v>44357</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -10361,24 +10361,24 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K139" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>212</v>
+        <v>483</v>
       </c>
       <c r="Q139" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44435</v>
+        <v>44357</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -10428,25 +10428,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K140" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L140" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M140" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="Q140" t="n">
         <v>40</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44377</v>
+        <v>44357</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K141" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L141" t="n">
         <v>14000</v>
       </c>
-      <c r="L141" t="n">
-        <v>15000</v>
-      </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="Q141" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44377</v>
+        <v>44329</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,20 +10581,20 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M142" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44433</v>
+        <v>44329</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K143" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M143" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44433</v>
+        <v>44476</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
@@ -10721,24 +10721,24 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K144" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L144" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M144" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="Q144" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44433</v>
+        <v>44476</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="K145" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L145" t="n">
         <v>10000</v>
       </c>
-      <c r="L145" t="n">
-        <v>11000</v>
-      </c>
       <c r="M145" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="Q145" t="n">
         <v>30</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44433</v>
+        <v>44476</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -10860,25 +10860,25 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K146" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L146" t="n">
         <v>8000</v>
       </c>
-      <c r="L146" t="n">
-        <v>9000</v>
-      </c>
       <c r="M146" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="Q146" t="n">
         <v>40</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44433</v>
+        <v>44482</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,20 +10941,20 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K147" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L147" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M147" t="n">
-        <v>10500</v>
+        <v>7750</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q147" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44307</v>
+        <v>44482</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K148" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L148" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M148" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>383</v>
+        <v>144</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44307</v>
+        <v>44356</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -11076,29 +11076,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K149" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L149" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="Q149" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44476</v>
+        <v>44356</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K150" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L150" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M150" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q150" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44476</v>
+        <v>44356</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -11225,24 +11225,24 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K151" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L151" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M151" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q151" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44476</v>
+        <v>44356</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K152" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M152" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="Q152" t="n">
         <v>40</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K153" t="n">
         <v>7000</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K154" t="n">
         <v>5000</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K155" t="n">
         <v>9000</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44363</v>
+        <v>44343</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K157" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L157" t="n">
         <v>14000</v>
       </c>
-      <c r="L157" t="n">
-        <v>15000</v>
-      </c>
       <c r="M157" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44363</v>
+        <v>44343</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K158" t="n">
         <v>14000</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44363</v>
+        <v>44343</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K159" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L159" t="n">
         <v>13000</v>
       </c>
       <c r="M159" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q159" t="n">
         <v>40</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44363</v>
+        <v>44343</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K160" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L160" t="n">
         <v>14000</v>
       </c>
-      <c r="L160" t="n">
-        <v>15000</v>
-      </c>
       <c r="M160" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="Q160" t="n">
         <v>40</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44301</v>
+        <v>44370</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K161" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L161" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M161" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="Q161" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44357</v>
+        <v>44370</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,20 +12021,20 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K162" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M162" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="Q162" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44357</v>
+        <v>44370</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K163" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L163" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M163" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>483</v>
+        <v>312</v>
       </c>
       <c r="Q163" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -12156,29 +12156,29 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K164" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L164" t="n">
         <v>12000</v>
       </c>
-      <c r="L164" t="n">
-        <v>13000</v>
-      </c>
       <c r="M164" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="Q164" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44357</v>
+        <v>44392</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K165" t="n">
         <v>13000</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="Q165" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44328</v>
+        <v>44392</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -12300,16 +12300,16 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
         <v>11000</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="Q166" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44328</v>
+        <v>44392</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K167" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L167" t="n">
         <v>12000</v>
       </c>
-      <c r="L167" t="n">
-        <v>13000</v>
-      </c>
       <c r="M167" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>417</v>
+        <v>288</v>
       </c>
       <c r="Q167" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K168" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L168" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M168" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="Q168" t="n">
         <v>50</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44314</v>
+        <v>44328</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44314</v>
+        <v>44301</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -12593,24 +12593,24 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K170" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L170" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -12619,10 +12619,10 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="Q170" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44392</v>
+        <v>44307</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,20 +12669,20 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K171" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L171" t="n">
         <v>12000</v>
       </c>
       <c r="M171" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>220</v>
+        <v>383</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44392</v>
+        <v>44307</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -12737,24 +12737,24 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K172" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L172" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M172" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>450</v>
+        <v>238</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44392</v>
+        <v>44433</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K173" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L173" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M173" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="Q173" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44392</v>
+        <v>44433</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -12876,29 +12876,29 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K174" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M174" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="Q174" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44461</v>
+        <v>44433</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,20 +12957,20 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K175" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L175" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M175" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q175" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44461</v>
+        <v>44433</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -13025,24 +13025,24 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K176" t="n">
         <v>8000</v>
       </c>
       <c r="L176" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M176" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q176" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44461</v>
+        <v>44433</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K177" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L177" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M177" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="Q177" t="n">
         <v>40</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44503</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1368,13 +1368,13 @@
         <v>700</v>
       </c>
       <c r="K14" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L14" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M14" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="Q14" t="n">
         <v>50</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44406</v>
+        <v>44503</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K15" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L15" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M15" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="Q15" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K16" t="n">
         <v>9000</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>800</v>
       </c>
       <c r="K17" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L17" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M17" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44419</v>
+        <v>44406</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K18" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L18" t="n">
         <v>10000</v>
       </c>
-      <c r="L18" t="n">
-        <v>11000</v>
-      </c>
       <c r="M18" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="Q18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44419</v>
+        <v>44406</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>800</v>
       </c>
       <c r="K19" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L19" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M19" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="Q19" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K20" t="n">
         <v>10000</v>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K21" t="n">
         <v>8000</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="Q21" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K22" t="n">
         <v>10000</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44475</v>
+        <v>44419</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
@@ -2009,24 +2009,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K23" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L23" t="n">
         <v>9000</v>
       </c>
-      <c r="L23" t="n">
-        <v>10000</v>
-      </c>
       <c r="M23" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44475</v>
+        <v>44419</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K24" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L24" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M24" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="Q24" t="n">
         <v>40</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44363</v>
+        <v>44475</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K25" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L25" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M25" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44363</v>
+        <v>44475</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K26" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M26" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>483</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L27" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M27" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K28" t="n">
         <v>14000</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="Q28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44391</v>
+        <v>44363</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L29" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M29" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44391</v>
+        <v>44363</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K31" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L31" t="n">
         <v>12000</v>
       </c>
       <c r="M31" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="Q31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2661,20 +2661,20 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K32" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L32" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="Q32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44364</v>
+        <v>44391</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2724,29 +2724,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M33" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44364</v>
+        <v>44391</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,20 +2805,20 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M34" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K35" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="Q35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44434</v>
+        <v>44364</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,20 +2949,20 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K36" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L36" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44434</v>
+        <v>44364</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,20 +3021,20 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K37" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L37" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M37" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="Q37" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,20 +3093,20 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L38" t="n">
         <v>10000</v>
       </c>
-      <c r="L38" t="n">
-        <v>11000</v>
-      </c>
       <c r="M38" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,20 +3165,20 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K39" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L39" t="n">
         <v>8000</v>
       </c>
-      <c r="L39" t="n">
-        <v>9000</v>
-      </c>
       <c r="M39" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3187,10 +3187,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q39" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K40" t="n">
         <v>10000</v>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="Q40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44441</v>
+        <v>44434</v>
       </c>
       <c r="E41" t="n">
         <v>4</v>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K41" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L41" t="n">
         <v>9000</v>
       </c>
-      <c r="L41" t="n">
-        <v>10000</v>
-      </c>
       <c r="M41" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44441</v>
+        <v>44434</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>600</v>
       </c>
       <c r="K42" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L42" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M42" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="Q42" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3453,20 +3453,20 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K43" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L43" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M43" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L44" t="n">
         <v>8000</v>
       </c>
-      <c r="L44" t="n">
-        <v>9000</v>
-      </c>
       <c r="M44" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="Q44" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44413</v>
+        <v>44441</v>
       </c>
       <c r="E45" t="n">
         <v>4</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="K45" t="n">
         <v>8000</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44413</v>
+        <v>44441</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
@@ -3660,29 +3660,29 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Madrigal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K46" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L46" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M46" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="Q46" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,20 +3741,20 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K47" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L47" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M47" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K48" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L48" t="n">
         <v>7000</v>
       </c>
-      <c r="L48" t="n">
-        <v>8000</v>
-      </c>
       <c r="M48" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="Q48" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Madrigal</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3888,17 +3888,17 @@
         <v>800</v>
       </c>
       <c r="K49" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L49" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M49" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 40 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="Q49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44448</v>
+        <v>44413</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K50" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L50" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M50" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 40 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q50" t="n">
-        <v>50